--- a/result/生词本导入模版_5.xlsx
+++ b/result/生词本导入模版_5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D152"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,91 +458,93 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
+          <t>precipitate</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>adj. 匆忙的： acting or done with excessive or careless speed
+vt. 促使，导致： to cause to happen, especially suddenly or prematurely</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>the army's precipitate withdrawal from the field of battle  匆忙将军队从战场上撤下
+to precipitate an international crisis  产生国际危机</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
           <t>precipitation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>n. 沉积物，尤指降水： something precipitated as a deposit on the earth of hail, mist, rain, sleet, orsnow
 n. 仓促： excited and often showy or disorderly speed</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>The storm brought several inches of precipitation.   风暴带来的降水量高达数英尺。
 I fear that I may have acted with some precipitation on this matter, so I would like to reconsider.   我 害 怕自己在这个事情上考虑得太仓促了，因此我想再想想。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>precipitous</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 非常陡峭的：very steep, perpendicular, or overhanging in rise or fall
 adj. 匆忙的： acting or done with excessive or careless speed</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>a precipitous gorge  险峻的峡谷
 They soon regretted their precipitous actions in international affairs  他们很快就为他们在国际事务中的匆忙举动感到后悔。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>preclude</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>vt. 预先阻止： to make impossible, as by action taken in advance
 vt. 排斥 ：to exclude or prevent (someone) from a given condition or activity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Age alone will not preclude him from standing as a candidate.   年龄并没有阻止他成为候选人。
 He refused to preclude the subject from discussion .  他拒绝将这个话题排出讨论范围。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>precursor</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -552,17 +554,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>predecessor</t>
+          <t>precursor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
+          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
+          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -574,17 +576,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>predilection</t>
+          <t>predecessor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
+          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a predilection for travel  热爱旅行</t>
+          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -596,17 +598,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>preeminent</t>
+          <t>predilection</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
+          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
+          <t>a predilection for travel  热爱旅行</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -618,68 +620,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>preeminent</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>preempt</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vt. 预先占有： to appropriate, seize, or take for oneself before others
 v. 替换：to replace with something considered to be of greater value or priority: take precedence over</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>The naughty children had preempted front-row seats that were reserved for the guests of honor.   调 皮 的孩子们把前排留给贵客的座位占了。
 The special newscast preempted the usual television program.   特别新闻取代了常规节目。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>preen</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 整理（羽毛）：to smooth or clean (feathers) with the beak or bill
 vt. 打扮修饰： to dress or groom (oneself) with elaborate care
 vt. 自满： to take pride or satisfaction in (oneself)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>She always preen herself in an elaborate suit before going to the opera.   她去听歌剧之前总要精心打扮一番，穿上最豪华的服装。
 He always preen himself on his ancestry.   他总是因为他的血统而洋洋得意</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>preface</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -689,43 +691,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>preface</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>pregnant</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 重要的，意味深长的： weighty or significant; full of meaning
 adj. 怀孕的：containing a developing embryo, fetus, or unborn offspring within the body</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the pregnant phrases of the Bible《圣经》中充满哲理的话语
 Being pregnant represents great news, but it comes with a lot of responsibilities.   怀孕是件大好事，但是它也带来了许多的责任。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>premeditate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -735,17 +737,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>preoccupation</t>
+          <t>premeditate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
+          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
+          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -757,17 +759,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>preponderant</t>
+          <t>preoccupation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
+          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a preponderant misconception  一个影响甚广的错误概念</t>
+          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -779,17 +781,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>prepossessing</t>
+          <t>preponderant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 给人好感的：serving to impress favorably</t>
+          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
+          <t>a preponderant misconception  一个影响甚广的错误概念</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -801,17 +803,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>preposterous</t>
+          <t>prepossessing</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
+          <t>adj. 给人好感的：serving to impress favorably</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
+          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -823,43 +825,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>preposterous</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>presage</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>n. 征兆： something believed to be a sign or warning of a future event
 vt. 预示，预言： to foretell or predict</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>The sight of the first robin is always a welcome presage of spring.  第一只知更鸟的出现总是迎接春天到来的象征
 The incident may presage war.   这个事件可能是战争的征兆</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>prescience</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -869,15 +871,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>prescription</t>
+          <t>prescience</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>n. 规定，传统的规矩： something prescribed as a rule; especially an inherited or established way ofthinking, feeling, or doing</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -887,19 +893,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>preservative</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>containing no chemical preservative  不含化学防腐剂</t>
-        </is>
-      </c>
+          <t>prescription</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -909,17 +907,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>prestige</t>
+          <t>preservative</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
+          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
+          <t>containing no chemical preservative  不含化学防腐剂</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -931,64 +929,64 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>prestige</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>presumptuous</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 放肆的，冒昧的： overstepping due bounds (as of propriety or courtesy)
 adj. 傲慢的： having a feeling of superiority that shows itself in an overbearing attitude</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Under such a circumstance his demand for attention was utterly presumptuous.  在 那 种 情况 下 他要 求被关注是极其冒昧的
 The presumptuous doctor didn't even bother to explain to me the treatment that I would be receiving.   傲慢的医生连给我说明我会接受何种治疗的耐性都没有。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>pretense</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>n. 虚假，伪装： the act of pretending; a false appearance or action intended to deceive
 n. 自大，优越感： an exaggerated sense of one's importance that shows itself in the making ofexcessive or unjustified claims</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>There is too much pretense in his piety.   他的虔诚大多都是伪装。</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>preternatural</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1000,15 +998,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>preternatural</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1018,19 +1020,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prevalent</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
-        </is>
-      </c>
+          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1040,17 +1038,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>prevaricate</t>
+          <t>prevalent</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
+          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
+          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1062,17 +1060,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>primordial</t>
+          <t>prevaricate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
+          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>primordial forms of life  最原始的生命形态</t>
+          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1084,17 +1082,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>primp</t>
+          <t>primordial</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
+          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
+          <t>primordial forms of life  最原始的生命形态</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1106,17 +1104,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>principal</t>
+          <t>primp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
+          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
+          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1128,17 +1126,17 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pristine</t>
+          <t>principal</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>adj. 纯净的，质朴的，未被文明腐蚀的： remaining in a pure state; uncorrupted by civilization. remainingfree from dirt or decay; clean</t>
+          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>a pristine forest  一片未被文明影响的森林</t>
+          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1150,19 +1148,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>privation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
-        </is>
-      </c>
+          <t>pristine</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1172,17 +1162,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>probe</t>
+          <t>privation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>v./n. 深入调查： a penetrating or critical investigation</t>
+          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>probe into his background  深入调查他的背景</t>
+          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1194,17 +1184,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>probity</t>
+          <t>probe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 正直： faithfulness to high moral standards</t>
+          <t>v./n. 深入调查： a penetrating or critical investigation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
+          <t>probe into his background  深入调查他的背景</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1216,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>proclivity</t>
+          <t>probity</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
+          <t>n. 正直： faithfulness to high moral standards</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
+          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1238,17 +1228,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>procrastinate</t>
+          <t>proclivity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
+          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
+          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1260,17 +1250,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>procure</t>
+          <t>procrastinate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vt. 获得，取得： to get possession of</t>
+          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
+          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1282,17 +1272,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>prod</t>
+          <t>procure</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
+          <t>vt. 获得，取得： to get possession of</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
+          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1304,17 +1294,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>prodigal</t>
+          <t>prod</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>adj. 挥霍的： recklessly spendthrift</t>
+          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
+          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1326,67 +1316,67 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>adj. 挥霍的： recklessly spendthrift</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>prodigious</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>adj. 巨大的： impressively great in size, force, or extent; enormous
 adj. 惊人的，了不起的： causing wonder or astonishment</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>a prodigious supply of canned food kept in the basement  地下室贮存着大量罐头食品
 stage magicians performing prodigious feats for rapt audiences  舞台魔术师在全神贯注的观众们面前表演</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>profane</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>v. 亵渎： to treat (something sacred) with abuse, irreverence, or contempt
 v. 滥用： to put to a bad or improper use</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>invading troops profaned the altar by playing poker on it  侵略军亵渎了祭坛，竟然在上面打扑克
 profaned his considerable acting talents by appearing in some wretched movies  在一些烂俗的电影里面出现简直就是浪费表演才华</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>proffer</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>v./n. 献出，提供： to offer for acceptance; tenderMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>proffered her assistance in helping the two sides reach a compromise  她在斡旋双方达成妥协过程中尽了力</t>
-        </is>
-      </c>
       <c r="D43" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1396,19 +1386,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>proficient</t>
+          <t>proffer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>proficient in translating foreign languages  精通外语翻译</t>
-        </is>
-      </c>
+          <t>v./n. 献出，提供： to offer for acceptance; tender</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1418,45 +1404,45 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>proficient</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>proficient in translating foreign languages  精通外语翻译</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>profligate</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>adj./n. 挥金如土的，挥霍的： recklessly wasteful; wildly extravagant
 n. 败家子： someone who spends money freely or foolishly
 n. 堕落的人： a person who has sunk below the normal moral standard</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>leading a profligate life  过着骄奢淫逸的生活
 profligate who could not really afford the grand style he maintained at Monticello, Jefferson died deeply indebt  再也支撑不了在蒙蒂塞洛之时的大手大脚的作风，败家子杰斐逊最终深陷债务危机
 a drunken profligate, he was given to wretched excess in every aspect of his life  一个喝醉的堕落的人，在生活的方方面面都日趋堕落</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>profundity</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>n. 深奥，深刻： something profound or abstruse</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1466,64 +1452,64 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>profundity</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>n. 深奥，深刻： something profound or abstruse</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>profusion</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 丰富，大量： the state of being profuse; abundance
 n. 挥霍，浪费： the quality or fact of being free or wasteful in the expenditure of money</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>snow falling in profusion  雪量很大
 in giving gifts to his girlfriend, he was generous to the point of profusion  对于给女朋友的礼物支出一项，他慷慨到了几乎奢侈的地步</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>prohibitive</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 禁止的；阻止的： tending to prohibit or restrain
 adj. （价格高得）抑制购买的： so high or burdensome as to discourage purchase or use</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>prohibitive prices  抑制购买的高价</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>proliferate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1535,17 +1521,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>prolix</t>
+          <t>proliferate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
+          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
+          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1557,17 +1543,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>prologue</t>
+          <t>prolix</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. 序言： the preface or introduction to a literary work</t>
+          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
+          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1579,17 +1565,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>prolong</t>
+          <t>prologue</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
+          <t>n. 序言： the preface or introduction to a literary work</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
+          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1601,17 +1587,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>proofread</t>
+          <t>prolong</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
+          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
+          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1623,17 +1609,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promulgate</t>
+          <t>proofread</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 正式宣布： to make known openly or publicly</t>
+          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
+          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1645,43 +1631,43 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>promulgate</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vt. 正式宣布： to make known openly or publicly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>propagate</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>v. 繁殖： to cause to continue or increase by sexual or asexual reproduction
 vt. 传播，宣传： to cause to spread out and affect a greater number or greater area: extend</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>the dams along the river are interfering with the salmon's ability to propagate  河上的大坝影响了大马哈鱼的繁殖
 the various ways in which churches can propagate the faith  不同的宣传教义的方法</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>propensity</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1691,17 +1677,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>prophetic</t>
+          <t>propensity</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 预言的，预示的： foretelling events：predictive</t>
+          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
+          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1713,17 +1699,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>propitiate</t>
+          <t>prophetic</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
+          <t>adj. 预言的，预示的： foretelling events：predictive</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
+          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1735,17 +1721,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>propitious</t>
+          <t>propitiate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
+          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>propitious sign  吉祥的征兆</t>
+          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1757,17 +1743,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>proponent</t>
+          <t>propitious</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
+          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
+          <t>propitious sign  吉祥的征兆</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1779,43 +1765,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>proponent</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>propriety</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>n. 礼节： conformity to what is socially acceptable in conduct or speech
 n. 适当得体： the quality or state of being especially suitable or fitting</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>When attending a wedding, there are certain proprieties that must be followed.  参加婚礼时，有一些礼节需要遵守。
 I'm not sure about the propriety of serving champagne in these glasses.   我不确定在这种杯子里倒香槟是否得体。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>prosaic</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>prosaic advice  老掉牙的建议</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1825,17 +1811,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>proscribe</t>
+          <t>prosaic</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 禁止，排斥： to prohibit; forbid</t>
+          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>acts proscribed by law  被法律禁止的行为</t>
+          <t>prosaic advice  老掉牙的建议</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1847,17 +1833,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>prosecution</t>
+          <t>proscribe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 实行，执行： the doing of an action</t>
+          <t>vt. 禁止，排斥： to prohibit; forbid</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
+          <t>acts proscribed by law  被法律禁止的行为</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1869,17 +1855,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>proselytize</t>
+          <t>prosecution</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
+          <t>n. 实行，执行： the doing of an action</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
+          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1891,39 +1877,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>proselytize</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>prospect</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 探查，勘探： to go into or range over for purposes of discovery
 n. 期待，被期望的某物： the act or state of looking forward to some occurrence</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>people had arrived in the valley to prospect it for gold  人们来到山谷淘金
 The prospect of a quiet, restful Sunday ended when our basement flooded.  对一个宁静休闲的周日的期待被地下室涨水打破了。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>prosperous</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1933,43 +1923,39 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>prosperous</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>prostrate</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj./v. 平躺： lying flat or at full length
 adj./v. 衰弱的/使衰竭： to reduce to extreme weakness or incapacitation</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>He was lying prostrate on the bed.   他平躺在床上。
 illness that prostrated an entire family  将整个家庭拖垮的疾病</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>protean</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1979,17 +1965,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>protean</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 正确的礼仪规范： a code of correct conduct</t>
+          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>a breach of protocol  社交礼仪的破坏</t>
+          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -2001,15 +1987,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>protract</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>n. 正确的礼仪规范： a code of correct conduct</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>a breach of protocol  社交礼仪的破坏</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2019,19 +2009,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>protrude</t>
+          <t>protract</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vi. 突出： to jut out; project; bulge</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
-        </is>
-      </c>
+          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2041,17 +2027,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>protuberant</t>
+          <t>protrude</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
+          <t>vi. 突出： to jut out; project; bulge</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>protuberant eyes  暴鱼眼</t>
+          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2063,43 +2049,43 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>protuberant</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>protuberant eyes  暴鱼眼</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>provident</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 节俭的： frugal; economical
 adj. 有远见的： having or showing awareness of and preparation for the future</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>it is possible to be provident without being miserly  人可以做到节俭但不吝啬
 her provident measures kept us safe while we waited out the hurricane  她之前有远见的准备让我等待飓风结束的期间安全无恙</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>providential</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>a providential escape  幸运的逃脱</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2109,17 +2095,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>provincial</t>
+          <t>providential</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
+          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
+          <t>a providential escape  幸运的逃脱</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2131,17 +2117,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>provisional</t>
+          <t>provincial</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
+          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
+          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2153,17 +2139,17 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>provisory</t>
+          <t>provisional</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the timeMade By Jason &amp; Franklin. This Document Is Strictly Prohibited For Commercial Purposes Without Authorization.being</t>
+          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>a provisory permit to block off the street while movie scenes were being shot  一个同意在电影拍摄期间封锁道路的临时许可</t>
+          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -2175,43 +2161,39 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>provisory</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the time</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>provoke</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>vt. 激怒： to incite to anger or resentment
 vt. 驱使，激起： to stir to action or feeling</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>his teasing finally provoked her to anger  他的调戏最终把她激怒了
 rankings that are sure to provoke an argument among film critics  排名必将引发影评家们的争论</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>prowess</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>his prowess on the football field  他在球场上过人的勇气</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2221,17 +2203,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>prowl</t>
+          <t>prowess</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
+          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
+          <t>his prowess on the football field  他在球场上过人的勇气</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2243,17 +2225,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>prude</t>
+          <t>prowl</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
+          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
+          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2265,17 +2247,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>prudish</t>
+          <t>prude</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 过分守礼的： marked by prudery</t>
+          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
+          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2287,40 +2269,40 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>prudish</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 过分守礼的： marked by prudery</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>prudent</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 明智的： marked by wisdom or judiciousness; wise
 adj. 小心谨慎的，审慎的： marked by circumspection</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>prudent advice  明智的建议</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>pry</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>don't go prying into other people's business  别去打探别人的事</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2332,17 +2314,18 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pseudonym</t>
+          <t>prune</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n. 假名，笔名： a fictitious name</t>
+          <t>n. 梅干： a plum dried or capable of drying without fermentation
+vt. 修剪： to cut off or remove dead or living parts or branches of (a plant, for example) to improveshape or growth</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
+          <t>The students were asked to prune their essays.  学生们被要求修改文章。</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2354,65 +2337,65 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
+          <t>pry</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>don't go prying into other people's business  别去打探别人的事</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>pseudonym</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n. 假名，笔名： a fictitious name</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>psychology</t>
         </is>
       </c>
-      <c r="B87" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>n. 心理学： the science that deals with mental processes and behavior
 n. 心理战术： subtle tactical action or argument used to manipulate or influence another</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>She studied psychology in college.   她大学专业是心理学。
 He used poor psychology on his employer when trying to make the point.   他表达观点时，对老板用了拙劣的心理战术。</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>pucker</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>pucker my lips  撅起嘴</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>puckish</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2422,17 +2405,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>puerile</t>
+          <t>pucker</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
+          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>puerile remarks  幼稚的评论</t>
+          <t>pucker my lips  撅起嘴</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2444,17 +2427,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>puissance</t>
+          <t>puckish</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>n. 权力： power; might</t>
+          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
+          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2466,15 +2449,19 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>pulchritude</t>
+          <t>puerile</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 美丽： great physical beauty and appeal</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr"/>
+          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>puerile remarks  幼稚的评论</t>
+        </is>
+      </c>
       <c r="D92" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2484,17 +2471,17 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>pulverize</t>
+          <t>puissance</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
+          <t>n. 权力： power; might</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
+          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
@@ -2506,19 +2493,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pun</t>
+          <t>pulchritude</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
-        </is>
-      </c>
+          <t>n. 美丽： great physical beauty and appeal</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2528,15 +2511,19 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>punctilious</t>
+          <t>pulverize</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr"/>
+          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
+        </is>
+      </c>
       <c r="D95" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2546,17 +2533,17 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pundit</t>
+          <t>pun</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
+          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
+          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
@@ -2568,19 +2555,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pungent</t>
+          <t>punctilious</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>pungent language  辛辣讽刺的语言</t>
-        </is>
-      </c>
+          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2590,15 +2573,19 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>puny</t>
+          <t>pundit</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
+          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
+        </is>
+      </c>
       <c r="D98" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2608,17 +2595,17 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>purity</t>
+          <t>pungent</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
+          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
+          <t>pungent language  辛辣讽刺的语言</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2630,65 +2617,61 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
+          <t>puny</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>purity</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>purlieu</t>
         </is>
       </c>
-      <c r="B100" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 常去的地方： a place for spending time or for socializing
 n. 临近的地区： an adjoining region or space</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>The restaurant, the preferred purlieu of the theatergoing crowd, is always packed an hour or two beforeshowtime.  观剧的人群经常去的那间餐厅，总是在演出开始前 1-2 小时爆满。
 We stopped at one of the several pubs in the purlieus of the stadium.   我们在体育馆附近的一间酒吧停下来。</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>purloin</t>
-        </is>
-      </c>
-      <c r="B101" t="inlineStr">
-        <is>
-          <t>vt. 偷窃： to steal, often in a violation of trust</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>purvey</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2698,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>quack</t>
+          <t>purloin</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
+          <t>vt. 偷窃： to steal, often in a violation of trust</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
+          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2720,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>quaff</t>
+          <t>purvey</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
+          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
+          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2742,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>quail</t>
+          <t>pusillanimous</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
+          <t>adj. 懦弱的，胆小得令人鄙视的： lacking courage and resolution : marked by contemptible timidity</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
+          <t>pusillanimous politicians who vote according to whichever way the political wind is blowing  胆小懦弱的政客，舆论风向倒向谁就投票给谁</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2764,291 +2747,291 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
+          <t>quack</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>quaff</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>quail</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>qualify</t>
         </is>
       </c>
-      <c r="B106" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>vt. 限定： to reduce from a general to a particular or restricted form
 v. 使有资格，有能力： to make competent (as by training, skill, or ability) for a particular office orfunction</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>qualified support  有限的支持
 raising five children has qualified her to be an advice columnist on parenting  抚养五个孩子的经历让她成为了育儿板块的专栏作家</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
         <is>
           <t>quandary</t>
         </is>
       </c>
-      <c r="B107" t="inlineStr">
+      <c r="B110" t="inlineStr">
         <is>
           <t>n. 困惑，窘境： a state of perplexity or doubt</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
+      <c r="C110" t="inlineStr">
         <is>
           <t xml:space="preserve">I've had two job offers, and I'm in a real quandary about/over which one to accept.   我有两个工作机会,但实在是进退两难，不知道应该选哪一个.  </t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
         <is>
           <t>quarantine</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B111" t="inlineStr">
         <is>
           <t>n. 隔离： to isolate from normal relations or communication</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C111" t="inlineStr">
         <is>
           <t>The cows will be kept in quarantine for another two weeks.   牛群还需要被隔离观察两周。</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
         <is>
           <t>quarry</t>
         </is>
       </c>
-      <c r="B109" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>n. 采石场： an open excavation or pit from which stone is obtained by digging, cutting, or blasting
 n. 目标，猎物： an object of pursuit</t>
         </is>
       </c>
-      <c r="C109" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a hunter relentlessly tracking his quarry  无情捕杀猎物的猎人</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
         <is>
           <t>quash</t>
         </is>
       </c>
-      <c r="B110" t="inlineStr">
+      <c r="B113" t="inlineStr">
         <is>
           <t>vt. 镇压，阻止： to put a stop to (something) by the use of force</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="C113" t="inlineStr">
         <is>
           <t>quash a rebellion  镇压一次叛变</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
         <is>
           <t>quaver</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B114" t="inlineStr">
         <is>
           <t>vt. 发颤音： to speak in a quivering voice; utter a quivering sound</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C114" t="inlineStr">
         <is>
           <t>His voice quavered during the speech.  整个演讲过程中，他的声音都是颤抖的。</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
         <is>
           <t>quell</t>
         </is>
       </c>
-      <c r="B112" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 压制： to put down forcibly; suppress
 vt. 使平静，安静： to pacify; quiet</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>quell riot  镇压骚乱
 quell fears  减轻害怕</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>quench</t>
         </is>
       </c>
-      <c r="B113" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>vt. 熄灭： to put out (a fire, for example); extinguish.
 v. 使满足： to put a complete end to (a physical need or desire)</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>We thoroughly quenched the campfire before we headed to bed.  我们在睡前把营火完全熄灭了。</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
         <is>
           <t>querulous</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B117" t="inlineStr">
         <is>
           <t>adj. 抱怨的，爱发牢骚的： habitually complaining</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C117" t="inlineStr">
         <is>
           <t>a querulous voice  抱怨的声音</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
         <is>
           <t>quibble</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>vi. 吹毛求疵： to find fault or criticize for petty reasons; cavil
 n. 牵强之词：微不足道的差别或不切中要点的异议，小反对： a minor objection or criticism</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>she spent the entire evening quibbling about the historical inaccuracies in the television series on WorldWar II  她一整晚都在对那个关于二战的电视剧里的历史错误吹毛求疵
 My only quibble about the trip was that it rained a lot.   我对旅行唯一的小不满就是下雨有点多。</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>quiescent</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>quixotic</t>
-        </is>
-      </c>
-      <c r="B117" t="inlineStr">
-        <is>
-          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
-        </is>
-      </c>
-      <c r="C117" t="inlineStr">
-        <is>
-          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>quota</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>n. 配额，限额： a proportional part or share</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3058,17 +3041,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>rabble</t>
+          <t>quiescent</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
+          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
+          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3080,17 +3063,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>rabid</t>
+          <t>quixotic</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
+          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
+          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3102,17 +3085,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>racy</t>
+          <t>quota</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 活泼生动的： vigorous; lively</t>
+          <t>n. 配额，限额： a proportional part or share</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
+          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3124,17 +3107,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>raffish</t>
+          <t>quotidian</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
+          <t>adj. 平凡的： everyday; commonplace</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
+          <t>plagued by a quotidian coughing  每天被咳嗽困扰</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3146,17 +3129,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>raffle</t>
+          <t>rabble</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 垃圾，废物： discarded or useless material</t>
+          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
+          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3168,17 +3151,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rage</t>
+          <t>rabid</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>n./v. 暴怒： violent and uncontrolled anger</t>
+          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
+          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3190,17 +3173,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>rail</t>
+          <t>racy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
+          <t>adj. 活泼生动的： vigorous; lively</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
+          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3212,17 +3195,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>rakish</t>
+          <t>raffish</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
+          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
+          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3234,586 +3217,643 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
+          <t>raffle</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>n. 垃圾，废物： discarded or useless material</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>rage</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>n./v. 暴怒： violent and uncontrolled anger</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ragged</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>adj. 衣衫褴褛的： dressed in tattered or threadbare clothes
+adj. 凹凸不平的，不光滑的： not having a level or smooth surface</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A ragged coat may cover an honest man.   不能以衣著取人。
+She cut herself on the ragged edge of the tin can's lid.   她被罐头盖的锋利边缘割伤了。</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>rail</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>rakish</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>ramble</t>
         </is>
       </c>
-      <c r="B127" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>vi. 漫步，漫游： to move aimlessly from place to place
 vi. 漫谈；长篇大论（并经常离题）地说或写： to talk at length without sticking to a topic or getting toa point</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>rambling under the starlight  在星光下漫步
 rambling around Beijing for a week  在北京四处漫游一周
 rambling on about dating, homework, movies, and the local football team  扯了一些关于约会、作业、电影以及本地橄榄球队的闲谈</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
         <is>
           <t>rambunctious</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>adj. 喧闹的，骚乱的： being rough or noisy in a high-spirited way</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>That beach is often taken over by packs of rambunctious young people, so don't go there expecting peaceand quiet.  那个海滩经常被一帮吵闹的年轻人占领，所以不要指望过去能享受到平静和安宁。</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
         <is>
           <t>ramshackle</t>
         </is>
       </c>
-      <c r="B129" t="inlineStr">
+      <c r="B134" t="inlineStr">
         <is>
           <t>adj. 摇摇欲坠的： appearing ready to collapse; rickety</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="C134" t="inlineStr">
         <is>
           <t>a ramshackle cabin in the woods  树林中摇摇欲坠的小木屋</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
         <is>
           <t>rancor</t>
         </is>
       </c>
-      <c r="B130" t="inlineStr">
+      <c r="B135" t="inlineStr">
         <is>
           <t>n. 敌意，深仇： a bitter deep-seated ill will</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="C135" t="inlineStr">
         <is>
           <t>A good man terminates a friendship without rancor.  君子绝交不记仇。</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
         <is>
           <t>random</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 随机的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>We received several answers and picked one at random.   我们收到了若干答案，并随机抽取了一个。
 aimless, arbitrary, desultory, erratic, haphazard, scattered, slapdash, stray</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
         <is>
           <t>rankle</t>
         </is>
       </c>
-      <c r="B132" t="inlineStr">
+      <c r="B137" t="inlineStr">
         <is>
           <t>vt. 激怒： to cause anger, irritation, or deep bitterness</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C137" t="inlineStr">
         <is>
           <t>It rankles me when some schools can't even afford paper and pencils for the students.   当 我 获 悉 有 些 学校连纸张和铅笔都无法提供给学生时，我感到十分愤怒。</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
         <is>
           <t>rant</t>
         </is>
       </c>
-      <c r="B133" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>n. （尤指长时间的）训斥，责骂： a long angry speech or scolding
 vi. 怒吼： to speak or write in a noisy, angry or violent manner</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>After complaining about the hotel’s lousy service, the woman went off on another rant about the conditionof her room.   在抱怨完旅店差劲的服务之后，她继续对房间的条件开骂。
 The old expert ranted that nobody paid any attention to his opinion.   老专家怒气冲冲的叫嚷说没人听他的观点。</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
         <is>
           <t>rapacious</t>
         </is>
       </c>
-      <c r="B134" t="inlineStr">
+      <c r="B139" t="inlineStr">
         <is>
           <t>adj. 食量大的，贪食的： having a huge appetite</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr"/>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
+      <c r="C139" t="inlineStr"/>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
         <is>
           <t>rapport</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B140" t="inlineStr">
         <is>
           <t>n. 和睦，友好： a friendly relationship marked by ready communication and mutual understanding</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C140" t="inlineStr">
         <is>
           <t>His good rapport with his students was one of the reasons why the school board named him Teacher of theYear.  他和学生的关系和睦是他被提名为“年度教师”的原因之一。</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
         <is>
           <t>rapprochement</t>
         </is>
       </c>
-      <c r="B136" t="inlineStr">
+      <c r="B141" t="inlineStr">
         <is>
           <t>n. 和睦，友好： establishment of or state of having cordial relations</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="C141" t="inlineStr">
         <is>
           <t>an era of rapprochement betweenChina and Russia  中俄两国睦邻友好关系的新纪元</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
         <is>
           <t>rapscallion</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B142" t="inlineStr">
         <is>
           <t>n. 流氓，恶棍：a mean, evil, or unprincipled person</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C142" t="inlineStr">
         <is>
           <t>an unsafe place frequented by drunkards and rapscallions  一个酒鬼和流氓经常造访的不安全的地方</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
         <is>
           <t>rapt</t>
         </is>
       </c>
-      <c r="B138" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 狂喜的： experiencing or marked by overwhelming usually pleasurable emotion
 adj. 全神贯注的：deeply absorbed; engrossed</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>a rock band that still attracts rapt crowds  一个仍然拥有者狂热粉丝的乐队
-With a mixture of delight and awe, the rapt children stared at the chick in the incubator breaking out of itsshell.  怀着愉快和敬畏的复杂心理，孩子们全神贯注地盯着孵化箱中的小鸡破壳而出。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
+With a mixture of delight and awe, the rapt children stared at the chick in the incubator breaking out of itsshell.  怀着愉快和敬畏的复杂心理，孩子们全神贯注地盯着孵化箱中的小鸡破壳而出。</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
         <is>
           <t>rash</t>
         </is>
       </c>
-      <c r="B139" t="inlineStr">
+      <c r="B144" t="inlineStr">
         <is>
           <t>adj. 草率的，仓促的： marked by or proceeding from undue haste or lack of deliberation or caution</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="C144" t="inlineStr">
         <is>
           <t>That was too rash a move: for now you've lost your bishop and probably the whole chess game.   那 一 招棋着实是太草率了，现在你丢掉了象，很有可能会输掉整场比赛。</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
         <is>
           <t>rarefy</t>
         </is>
       </c>
-      <c r="B140" t="inlineStr">
+      <c r="B145" t="inlineStr">
         <is>
           <t>vt. 使稀薄： to make rare, thin, porous, or less dense: to expand without the addition of matter</t>
         </is>
       </c>
-      <c r="C140" t="inlineStr">
+      <c r="C145" t="inlineStr">
         <is>
           <t>rarefy the air  使空气变得稀薄</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
         <is>
           <t>raspy</t>
         </is>
       </c>
-      <c r="B141" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>adj. 声音刺耳的： harsh and dry in sound
 adj. 容易生气的： easily irritated or annoyed</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The dying man was speaking in a raspy and barely discernible voice.   将死的人在用一种沙哑刺耳且难以听清的语调说话。
 Overwork tends to make him raspy.   过度的工作让他变得烦躁易怒。</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
         <is>
           <t>ratify</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B147" t="inlineStr">
         <is>
           <t>vt. （官方地）认可，批准： to give official acceptance of as satisfactory</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C147" t="inlineStr">
         <is>
           <t>Lincoln's home state of Illinois was the first to ratify the 13th Amendment to the U.  S.   Constitution, whichprovided for the abolition of slavery.   林肯的老家——伊利诺伊是美国第一个通过《宪法第十三修正案》的州，该决案提供了废除奴隶制的法律基础。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
         <is>
           <t>ratiocination</t>
         </is>
       </c>
-      <c r="B143" t="inlineStr">
+      <c r="B148" t="inlineStr">
         <is>
           <t>n. 推理： the thought processes that have been established as leading to valid solutions to problems</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="C148" t="inlineStr">
         <is>
           <t>As an expert in ratiocination, the detective Sherlock Holmes has few rivals.  作为推理专家，大侦探福尔摩斯可谓无人能及。</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
         <is>
           <t>ration</t>
         </is>
       </c>
-      <c r="B144" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>n. 定额供应量，配给量： an amount allotted or made available especially from a limited supply
 vt. 按比例分配： to give as a share or portion</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The meat ration was down to one pound per person per week.   肉的人均供给量降至了每周一磅。
 The region has had to ration water during times of drought.   干旱时该地区不得不按比例分配水资源。</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>rational</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>adj. 合乎逻辑的： consistent with or based on reason; logical
 adj. 理性的： based on sound reasoning or information</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>He insisted there was a rational explanation for the strange creaking noises and that there were no suchthings as ghosts.   他坚持认为奇怪的咯吱声一定有一个合理的解释，而不是所谓的鬼在作怪。
 Betting all of your savings on the lottery is not a rational move.   把你所有的存款赌在彩票上可不是一个理智的决定。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>rave</t>
         </is>
       </c>
-      <c r="B146" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>vi. 狂热赞扬： to make an exaggerated display of affection or enthusiasm
 vi. （发疯般地）怒吼： to talk irrationally and wildly in or as if in delirium</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Critics raved about the new play.   新剧得到了评论家们的热烈赞扬。
 a man standing outside the city hall,raving like a lunatic about his tax bill  站在市政大厅外、像疯子一样叫嚷着自己税单的人</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
         <is>
           <t>ravel</t>
         </is>
       </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>vt. 解开，松开： to separate the various strands of
-vt. 阐明： to clarify by separating the aspects of
-vt. 使纠缠，使复杂化： to tangle or complicate</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。本文档由陈琦和周书林共同制作完成。未经作者授权，严禁将此文档用于商业用途。
-a ravelled story  一个复杂的故事</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>vt. 解开，松开： to separate the various strands of</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
         <is>
           <t>ravish</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B153" t="inlineStr">
         <is>
           <t>vt. 使陶醉，使沉迷： to overcome with emotion (as wonder or delight)</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C153" t="inlineStr">
         <is>
           <t>I was completely ravished by those marvelous pictures taken by HST.  那些哈勃太空望远镜拍摄的壮观图片让我彻底的陶醉了。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
         <is>
           <t>raze</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>vt. 摧毁，粉碎： to destroy completely by or as if by knocking down or breaking to pieces</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Excavators were began to raze old school building.  挖土机开始夷平学校的老建筑。
 An entire cityblock razed by a terrible fire.  大火摧毁了整个街区。</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>react</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>vt. 做出反应： to act or behave in response (as to a stimulus or influence)</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>didn't know how to react to the cheers of the crowd  不知如何对人群的欢呼声做出回应</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>reactionary</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>adj. 反对变革的，极保守的： characterized by reaction, especially opposition to progress orliberalism; extremely conservative</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>reactionary rulers  保守的统治者</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>ream</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>v. 怒斥，训斥：to criticize (someone) severely or angrily especially for personal failings</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>You are so going to get reamed out when the boss learns that you wrecked the company car.  要 是 老板知道你把公司的车弄坏了，你肯定会挨骂的。</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_5.xlsx
+++ b/result/生词本导入模版_5.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,43 +422,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>单词</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>含义（可不填）</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>例句（可不填）</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>precipitate</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>adj. 匆忙的： acting or done with excessive or careless speed
+vt. 促使，导致： to cause to happen, especially suddenly or prematurely</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>the army's precipitate withdrawal from the field of battle  匆忙将军队从战场上撤下
+to precipitate an international crisis  产生国际危机</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>GRE</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>precipitate</t>
+          <t>precipitation</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>adj. 匆忙的： acting or done with excessive or careless speed
-vt. 促使，导致： to cause to happen, especially suddenly or prematurely</t>
+          <t>n. 沉积物，尤指降水： something precipitated as a deposit on the earth of hail, mist, rain, sleet, orsnow
+n. 仓促： excited and often showy or disorderly speed</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>the army's precipitate withdrawal from the field of battle  匆忙将军队从战场上撤下
-to precipitate an international crisis  产生国际危机</t>
+          <t>The storm brought several inches of precipitation.   风暴带来的降水量高达数英尺。
+I fear that I may have acted with some precipitation on this matter, so I would like to reconsider.   我 害 怕自己在这个事情上考虑得太仓促了，因此我想再想想。</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -482,19 +472,19 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>precipitation</t>
+          <t>precipitous</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>n. 沉积物，尤指降水： something precipitated as a deposit on the earth of hail, mist, rain, sleet, orsnow
-n. 仓促： excited and often showy or disorderly speed</t>
+          <t>adj. 非常陡峭的：very steep, perpendicular, or overhanging in rise or fall
+adj. 匆忙的： acting or done with excessive or careless speed</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>The storm brought several inches of precipitation.   风暴带来的降水量高达数英尺。
-I fear that I may have acted with some precipitation on this matter, so I would like to reconsider.   我 害 怕自己在这个事情上考虑得太仓促了，因此我想再想想。</t>
+          <t>a precipitous gorge  险峻的峡谷
+They soon regretted their precipitous actions in international affairs  他们很快就为他们在国际事务中的匆忙举动感到后悔。</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -506,19 +496,19 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>precipitous</t>
+          <t>preclude</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>adj. 非常陡峭的：very steep, perpendicular, or overhanging in rise or fall
-adj. 匆忙的： acting or done with excessive or careless speed</t>
+          <t>vt. 预先阻止： to make impossible, as by action taken in advance
+vt. 排斥 ：to exclude or prevent (someone) from a given condition or activity</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>a precipitous gorge  险峻的峡谷
-They soon regretted their precipitous actions in international affairs  他们很快就为他们在国际事务中的匆忙举动感到后悔。</t>
+          <t>Age alone will not preclude him from standing as a candidate.   年龄并没有阻止他成为候选人。
+He refused to preclude the subject from discussion .  他拒绝将这个话题排出讨论范围。</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -530,19 +520,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>preclude</t>
+          <t>precursor</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vt. 预先阻止： to make impossible, as by action taken in advance
-vt. 排斥 ：to exclude or prevent (someone) from a given condition or activity</t>
+          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Age alone will not preclude him from standing as a candidate.   年龄并没有阻止他成为候选人。
-He refused to preclude the subject from discussion .  他拒绝将这个话题排出讨论范围。</t>
+          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -554,17 +542,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>precursor</t>
+          <t>predecessor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
+          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
+          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -576,17 +564,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>predecessor</t>
+          <t>predilection</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
+          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
+          <t>a predilection for travel  热爱旅行</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -598,17 +586,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>predilection</t>
+          <t>preeminent</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
+          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>a predilection for travel  热爱旅行</t>
+          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -620,17 +608,19 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>preeminent</t>
+          <t>preempt</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
+          <t>vt. 预先占有： to appropriate, seize, or take for oneself before others
+v. 替换：to replace with something considered to be of greater value or priority: take precedence over</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
+          <t>The naughty children had preempted front-row seats that were reserved for the guests of honor.   调 皮 的孩子们把前排留给贵客的座位占了。
+The special newscast preempted the usual television program.   特别新闻取代了常规节目。</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -642,46 +632,44 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>preempt</t>
+          <t>preen</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
-        <is>
-          <t>vt. 预先占有： to appropriate, seize, or take for oneself before others
-v. 替换：to replace with something considered to be of greater value or priority: take precedence over</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>The naughty children had preempted front-row seats that were reserved for the guests of honor.   调 皮 的孩子们把前排留给贵客的座位占了。
-The special newscast preempted the usual television program.   特别新闻取代了常规节目。</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>preen</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 整理（羽毛）：to smooth or clean (feathers) with the beak or bill
 vt. 打扮修饰： to dress or groom (oneself) with elaborate care
 vt. 自满： to take pride or satisfaction in (oneself)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>She always preen herself in an elaborate suit before going to the opera.   她去听歌剧之前总要精心打扮一番，穿上最豪华的服装。
 He always preen himself on his ancestry.   他总是因为他的血统而洋洋得意</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>preface</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -691,17 +679,19 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>preface</t>
+          <t>pregnant</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
+          <t>adj. 重要的，意味深长的： weighty or significant; full of meaning
+adj. 怀孕的：containing a developing embryo, fetus, or unborn offspring within the body</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
+          <t>the pregnant phrases of the Bible《圣经》中充满哲理的话语
+Being pregnant represents great news, but it comes with a lot of responsibilities.   怀孕是件大好事，但是它也带来了许多的责任。</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -713,19 +703,17 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>pregnant</t>
+          <t>premeditate</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>adj. 重要的，意味深长的： weighty or significant; full of meaning
-adj. 怀孕的：containing a developing embryo, fetus, or unborn offspring within the body</t>
+          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>the pregnant phrases of the Bible《圣经》中充满哲理的话语
-Being pregnant represents great news, but it comes with a lot of responsibilities.   怀孕是件大好事，但是它也带来了许多的责任。</t>
+          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -737,17 +725,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>premeditate</t>
+          <t>preoccupation</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
+          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
+          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -759,17 +747,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>preoccupation</t>
+          <t>preponderant</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
+          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
+          <t>a preponderant misconception  一个影响甚广的错误概念</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -781,17 +769,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>preponderant</t>
+          <t>prepossessing</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
+          <t>adj. 给人好感的：serving to impress favorably</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>a preponderant misconception  一个影响甚广的错误概念</t>
+          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -803,17 +791,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>prepossessing</t>
+          <t>preposterous</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 给人好感的：serving to impress favorably</t>
+          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
+          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -825,17 +813,19 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>preposterous</t>
+          <t>presage</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
+          <t>n. 征兆： something believed to be a sign or warning of a future event
+vt. 预示，预言： to foretell or predict</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
+          <t>The sight of the first robin is always a welcome presage of spring.  第一只知更鸟的出现总是迎接春天到来的象征
+The incident may presage war.   这个事件可能是战争的征兆</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -847,19 +837,17 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>presage</t>
+          <t>prescience</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>n. 征兆： something believed to be a sign or warning of a future event
-vt. 预示，预言： to foretell or predict</t>
+          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>The sight of the first robin is always a welcome presage of spring.  第一只知更鸟的出现总是迎接春天到来的象征
-The incident may presage war.   这个事件可能是战争的征兆</t>
+          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -871,19 +859,11 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>prescience</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
-        </is>
-      </c>
+          <t>prescription</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr"/>
+      <c r="C20" t="inlineStr"/>
       <c r="D20" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -893,11 +873,19 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>prescription</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="inlineStr"/>
+          <t>preservative</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>containing no chemical preservative  不含化学防腐剂</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -907,17 +895,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>preservative</t>
+          <t>prestige</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
+          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>containing no chemical preservative  不含化学防腐剂</t>
+          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -929,17 +917,19 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>prestige</t>
+          <t>presumptuous</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
+          <t>adj. 放肆的，冒昧的： overstepping due bounds (as of propriety or courtesy)
+adj. 傲慢的： having a feeling of superiority that shows itself in an overbearing attitude</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
+          <t>Under such a circumstance his demand for attention was utterly presumptuous.  在 那 种 情况 下 他要 求被关注是极其冒昧的
+The presumptuous doctor didn't even bother to explain to me the treatment that I would be receiving.   傲慢的医生连给我说明我会接受何种治疗的耐性都没有。</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -951,19 +941,18 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>presumptuous</t>
+          <t>pretense</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>adj. 放肆的，冒昧的： overstepping due bounds (as of propriety or courtesy)
-adj. 傲慢的： having a feeling of superiority that shows itself in an overbearing attitude</t>
+          <t>n. 虚假，伪装： the act of pretending; a false appearance or action intended to deceive
+n. 自大，优越感： an exaggerated sense of one's importance that shows itself in the making ofexcessive or unjustified claims</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Under such a circumstance his demand for attention was utterly presumptuous.  在 那 种 情况 下 他要 求被关注是极其冒昧的
-The presumptuous doctor didn't even bother to explain to me the treatment that I would be receiving.   傲慢的医生连给我说明我会接受何种治疗的耐性都没有。</t>
+          <t>There is too much pretense in his piety.   他的虔诚大多都是伪装。</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -975,18 +964,17 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>pretense</t>
+          <t>preternatural</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>n. 虚假，伪装： the act of pretending; a false appearance or action intended to deceive
-n. 自大，优越感： an exaggerated sense of one's importance that shows itself in the making ofexcessive or unjustified claims</t>
+          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>There is too much pretense in his piety.   他的虔诚大多都是伪装。</t>
+          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -998,19 +986,15 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>preternatural</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
-        </is>
-      </c>
+          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1020,15 +1004,19 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>prevalent</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
+          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
+        </is>
+      </c>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1038,17 +1026,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>prevalent</t>
+          <t>prevaricate</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
+          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
+          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1060,17 +1048,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>prevaricate</t>
+          <t>primordial</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
+          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
+          <t>primordial forms of life  最原始的生命形态</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1082,17 +1070,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>primordial</t>
+          <t>primp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
+          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>primordial forms of life  最原始的生命形态</t>
+          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1104,17 +1092,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>primp</t>
+          <t>principal</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
+          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
+          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1126,19 +1114,11 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>principal</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
-        </is>
-      </c>
+          <t>pristine</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr"/>
+      <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1148,11 +1128,19 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>pristine</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="inlineStr"/>
+          <t>privation</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
+        </is>
+      </c>
       <c r="D33" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1162,17 +1150,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>privation</t>
+          <t>probe</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
+          <t>v./n. 深入调查： a penetrating or critical investigation</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
+          <t>probe into his background  深入调查他的背景</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1184,17 +1172,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>probe</t>
+          <t>probity</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>v./n. 深入调查： a penetrating or critical investigation</t>
+          <t>n. 正直： faithfulness to high moral standards</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>probe into his background  深入调查他的背景</t>
+          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1206,17 +1194,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>probity</t>
+          <t>proclivity</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 正直： faithfulness to high moral standards</t>
+          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
+          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1228,17 +1216,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>proclivity</t>
+          <t>procrastinate</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
+          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
+          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1250,17 +1238,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>procrastinate</t>
+          <t>procure</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
+          <t>vt. 获得，取得： to get possession of</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
+          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1272,17 +1260,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>procure</t>
+          <t>prod</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vt. 获得，取得： to get possession of</t>
+          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
+          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1294,17 +1282,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>prod</t>
+          <t>prodigal</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
+          <t>adj. 挥霍的： recklessly spendthrift</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
+          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1316,17 +1304,19 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>prodigal</t>
+          <t>prodigious</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>adj. 挥霍的： recklessly spendthrift</t>
+          <t>adj. 巨大的： impressively great in size, force, or extent; enormous
+adj. 惊人的，了不起的： causing wonder or astonishment</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
+          <t>a prodigious supply of canned food kept in the basement  地下室贮存着大量罐头食品
+stage magicians performing prodigious feats for rapt audiences  舞台魔术师在全神贯注的观众们面前表演</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -1338,19 +1328,19 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>prodigious</t>
+          <t>profane</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>adj. 巨大的： impressively great in size, force, or extent; enormous
-adj. 惊人的，了不起的： causing wonder or astonishment</t>
+          <t>v. 亵渎： to treat (something sacred) with abuse, irreverence, or contempt
+v. 滥用： to put to a bad or improper use</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>a prodigious supply of canned food kept in the basement  地下室贮存着大量罐头食品
-stage magicians performing prodigious feats for rapt audiences  舞台魔术师在全神贯注的观众们面前表演</t>
+          <t>invading troops profaned the altar by playing poker on it  侵略军亵渎了祭坛，竟然在上面打扑克
+profaned his considerable acting talents by appearing in some wretched movies  在一些烂俗的电影里面出现简直就是浪费表演才华</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -1362,21 +1352,15 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>profane</t>
+          <t>proffer</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>v. 亵渎： to treat (something sacred) with abuse, irreverence, or contempt
-v. 滥用： to put to a bad or improper use</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>invading troops profaned the altar by playing poker on it  侵略军亵渎了祭坛，竟然在上面打扑克
-profaned his considerable acting talents by appearing in some wretched movies  在一些烂俗的电影里面出现简直就是浪费表演才华</t>
-        </is>
-      </c>
+          <t>v./n. 献出，提供： to offer for acceptance; tender</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1386,15 +1370,19 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>proffer</t>
+          <t>proficient</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>v./n. 献出，提供： to offer for acceptance; tender</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr"/>
+          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>proficient in translating foreign languages  精通外语翻译</t>
+        </is>
+      </c>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1404,45 +1392,45 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>proficient</t>
+          <t>profligate</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
-        <is>
-          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>proficient in translating foreign languages  精通外语翻译</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>profligate</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
         <is>
           <t>adj./n. 挥金如土的，挥霍的： recklessly wasteful; wildly extravagant
 n. 败家子： someone who spends money freely or foolishly
 n. 堕落的人： a person who has sunk below the normal moral standard</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>leading a profligate life  过着骄奢淫逸的生活
 profligate who could not really afford the grand style he maintained at Monticello, Jefferson died deeply indebt  再也支撑不了在蒙蒂塞洛之时的大手大脚的作风，败家子杰斐逊最终深陷债务危机
 a drunken profligate, he was given to wretched excess in every aspect of his life  一个喝醉的堕落的人，在生活的方方面面都日趋堕落</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>profundity</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>n. 深奥，深刻： something profound or abstruse</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
+        </is>
+      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1452,17 +1440,19 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>profundity</t>
+          <t>profusion</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>n. 深奥，深刻： something profound or abstruse</t>
+          <t>n. 丰富，大量： the state of being profuse; abundance
+n. 挥霍，浪费： the quality or fact of being free or wasteful in the expenditure of money</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
+          <t>snow falling in profusion  雪量很大
+in giving gifts to his girlfriend, he was generous to the point of profusion  对于给女朋友的礼物支出一项，他慷慨到了几乎奢侈的地步</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -1474,19 +1464,18 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>profusion</t>
+          <t>prohibitive</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>n. 丰富，大量： the state of being profuse; abundance
-n. 挥霍，浪费： the quality or fact of being free or wasteful in the expenditure of money</t>
+          <t>adj. 禁止的；阻止的： tending to prohibit or restrain
+adj. （价格高得）抑制购买的： so high or burdensome as to discourage purchase or use</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>snow falling in profusion  雪量很大
-in giving gifts to his girlfriend, he was generous to the point of profusion  对于给女朋友的礼物支出一项，他慷慨到了几乎奢侈的地步</t>
+          <t>prohibitive prices  抑制购买的高价</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -1498,18 +1487,17 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>prohibitive</t>
+          <t>proliferate</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>adj. 禁止的；阻止的： tending to prohibit or restrain
-adj. （价格高得）抑制购买的： so high or burdensome as to discourage purchase or use</t>
+          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>prohibitive prices  抑制购买的高价</t>
+          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1521,17 +1509,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>proliferate</t>
+          <t>prolix</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
+          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
+          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1543,17 +1531,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>prolix</t>
+          <t>prologue</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
+          <t>n. 序言： the preface or introduction to a literary work</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
+          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1565,17 +1553,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>prologue</t>
+          <t>prolong</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>n. 序言： the preface or introduction to a literary work</t>
+          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
+          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1587,17 +1575,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>prolong</t>
+          <t>proofread</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
+          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
+          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1609,17 +1597,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>proofread</t>
+          <t>promulgate</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
+          <t>vt. 正式宣布： to make known openly or publicly</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
+          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1631,17 +1619,19 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>promulgate</t>
+          <t>propagate</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>vt. 正式宣布： to make known openly or publicly</t>
+          <t>v. 繁殖： to cause to continue or increase by sexual or asexual reproduction
+vt. 传播，宣传： to cause to spread out and affect a greater number or greater area: extend</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
+          <t>the dams along the river are interfering with the salmon's ability to propagate  河上的大坝影响了大马哈鱼的繁殖
+the various ways in which churches can propagate the faith  不同的宣传教义的方法</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -1653,19 +1643,17 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>propagate</t>
+          <t>propensity</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>v. 繁殖： to cause to continue or increase by sexual or asexual reproduction
-vt. 传播，宣传： to cause to spread out and affect a greater number or greater area: extend</t>
+          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>the dams along the river are interfering with the salmon's ability to propagate  河上的大坝影响了大马哈鱼的繁殖
-the various ways in which churches can propagate the faith  不同的宣传教义的方法</t>
+          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -1677,17 +1665,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>propensity</t>
+          <t>prophetic</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
+          <t>adj. 预言的，预示的： foretelling events：predictive</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
+          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1699,17 +1687,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>prophetic</t>
+          <t>propitiate</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>adj. 预言的，预示的： foretelling events：predictive</t>
+          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
+          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1721,17 +1709,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>propitiate</t>
+          <t>propitious</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
+          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
+          <t>propitious sign  吉祥的征兆</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1743,17 +1731,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>propitious</t>
+          <t>proponent</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
+          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>propitious sign  吉祥的征兆</t>
+          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1765,17 +1753,19 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>proponent</t>
+          <t>propriety</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
+          <t>n. 礼节： conformity to what is socially acceptable in conduct or speech
+n. 适当得体： the quality or state of being especially suitable or fitting</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
+          <t>When attending a wedding, there are certain proprieties that must be followed.  参加婚礼时，有一些礼节需要遵守。
+I'm not sure about the propriety of serving champagne in these glasses.   我不确定在这种杯子里倒香槟是否得体。</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -1787,19 +1777,17 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>propriety</t>
+          <t>prosaic</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>n. 礼节： conformity to what is socially acceptable in conduct or speech
-n. 适当得体： the quality or state of being especially suitable or fitting</t>
+          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>When attending a wedding, there are certain proprieties that must be followed.  参加婚礼时，有一些礼节需要遵守。
-I'm not sure about the propriety of serving champagne in these glasses.   我不确定在这种杯子里倒香槟是否得体。</t>
+          <t>prosaic advice  老掉牙的建议</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -1811,17 +1799,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>prosaic</t>
+          <t>proscribe</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
+          <t>vt. 禁止，排斥： to prohibit; forbid</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>prosaic advice  老掉牙的建议</t>
+          <t>acts proscribed by law  被法律禁止的行为</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1833,17 +1821,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>proscribe</t>
+          <t>prosecution</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>vt. 禁止，排斥： to prohibit; forbid</t>
+          <t>n. 实行，执行： the doing of an action</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>acts proscribed by law  被法律禁止的行为</t>
+          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1855,17 +1843,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>prosecution</t>
+          <t>proselytize</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>n. 实行，执行： the doing of an action</t>
+          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
+          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1877,17 +1865,19 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>proselytize</t>
+          <t>prospect</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
+          <t>vi. 探查，勘探： to go into or range over for purposes of discovery
+n. 期待，被期望的某物： the act or state of looking forward to some occurrence</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
+          <t>people had arrived in the valley to prospect it for gold  人们来到山谷淘金
+The prospect of a quiet, restful Sunday ended when our basement flooded.  对一个宁静休闲的周日的期待被地下室涨水打破了。</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -1899,21 +1889,15 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>prospect</t>
+          <t>prosperous</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>vi. 探查，勘探： to go into or range over for purposes of discovery
-n. 期待，被期望的某物： the act or state of looking forward to some occurrence</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>people had arrived in the valley to prospect it for gold  人们来到山谷淘金
-The prospect of a quiet, restful Sunday ended when our basement flooded.  对一个宁静休闲的周日的期待被地下室涨水打破了。</t>
-        </is>
-      </c>
+          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1923,15 +1907,21 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>prosperous</t>
+          <t>prostrate</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr"/>
+          <t>adj./v. 平躺： lying flat or at full length
+adj./v. 衰弱的/使衰竭： to reduce to extreme weakness or incapacitation</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>He was lying prostrate on the bed.   他平躺在床上。
+illness that prostrated an entire family  将整个家庭拖垮的疾病</t>
+        </is>
+      </c>
       <c r="D68" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1941,19 +1931,17 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>prostrate</t>
+          <t>protean</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>adj./v. 平躺： lying flat or at full length
-adj./v. 衰弱的/使衰竭： to reduce to extreme weakness or incapacitation</t>
+          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>He was lying prostrate on the bed.   他平躺在床上。
-illness that prostrated an entire family  将整个家庭拖垮的疾病</t>
+          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -1965,17 +1953,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>protean</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
+          <t>n. 正确的礼仪规范： a code of correct conduct</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
+          <t>a breach of protocol  社交礼仪的破坏</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1987,19 +1975,15 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>protract</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>n. 正确的礼仪规范： a code of correct conduct</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>a breach of protocol  社交礼仪的破坏</t>
-        </is>
-      </c>
+          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2009,15 +1993,19 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>protract</t>
+          <t>protrude</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr"/>
+          <t>vi. 突出： to jut out; project; bulge</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
+        </is>
+      </c>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2027,17 +2015,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>protrude</t>
+          <t>protuberant</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>vi. 突出： to jut out; project; bulge</t>
+          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
+          <t>protuberant eyes  暴鱼眼</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2049,17 +2037,19 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>protuberant</t>
+          <t>provident</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
+          <t>adj. 节俭的： frugal; economical
+adj. 有远见的： having or showing awareness of and preparation for the future</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>protuberant eyes  暴鱼眼</t>
+          <t>it is possible to be provident without being miserly  人可以做到节俭但不吝啬
+her provident measures kept us safe while we waited out the hurricane  她之前有远见的准备让我等待飓风结束的期间安全无恙</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2071,19 +2061,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>provident</t>
+          <t>providential</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>adj. 节俭的： frugal; economical
-adj. 有远见的： having or showing awareness of and preparation for the future</t>
+          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>it is possible to be provident without being miserly  人可以做到节俭但不吝啬
-her provident measures kept us safe while we waited out the hurricane  她之前有远见的准备让我等待飓风结束的期间安全无恙</t>
+          <t>a providential escape  幸运的逃脱</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -2095,17 +2083,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>providential</t>
+          <t>provincial</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
+          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>a providential escape  幸运的逃脱</t>
+          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2117,17 +2105,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>provincial</t>
+          <t>provisional</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
+          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
+          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2139,19 +2127,15 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>provisional</t>
+          <t>provisory</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
-        </is>
-      </c>
+          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the time</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2161,15 +2145,21 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>provisory</t>
+          <t>provoke</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the time</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr"/>
+          <t>vt. 激怒： to incite to anger or resentment
+vt. 驱使，激起： to stir to action or feeling</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>his teasing finally provoked her to anger  他的调戏最终把她激怒了
+rankings that are sure to provoke an argument among film critics  排名必将引发影评家们的争论</t>
+        </is>
+      </c>
       <c r="D79" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2179,19 +2169,17 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>provoke</t>
+          <t>prowess</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>vt. 激怒： to incite to anger or resentment
-vt. 驱使，激起： to stir to action or feeling</t>
+          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>his teasing finally provoked her to anger  他的调戏最终把她激怒了
-rankings that are sure to provoke an argument among film critics  排名必将引发影评家们的争论</t>
+          <t>his prowess on the football field  他在球场上过人的勇气</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
@@ -2203,17 +2191,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>prowess</t>
+          <t>prowl</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
+          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>his prowess on the football field  他在球场上过人的勇气</t>
+          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2225,17 +2213,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>prowl</t>
+          <t>prude</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
+          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
+          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2247,17 +2235,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>prude</t>
+          <t>prudish</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
+          <t>adj. 过分守礼的： marked by prudery</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
+          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2269,17 +2257,18 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>prudish</t>
+          <t>prudent</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>adj. 过分守礼的： marked by prudery</t>
+          <t>adj. 明智的： marked by wisdom or judiciousness; wise
+adj. 小心谨慎的，审慎的： marked by circumspection</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
+          <t>prudent advice  明智的建议</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
@@ -2291,18 +2280,18 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>prudent</t>
+          <t>prune</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>adj. 明智的： marked by wisdom or judiciousness; wise
-adj. 小心谨慎的，审慎的： marked by circumspection</t>
+          <t>n. 梅干： a plum dried or capable of drying without fermentation
+vt. 修剪： to cut off or remove dead or living parts or branches of (a plant, for example) to improveshape or growth</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>prudent advice  明智的建议</t>
+          <t>The students were asked to prune their essays.  学生们被要求修改文章。</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
@@ -2314,18 +2303,17 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>prune</t>
+          <t>pry</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>n. 梅干： a plum dried or capable of drying without fermentation
-vt. 修剪： to cut off or remove dead or living parts or branches of (a plant, for example) to improveshape or growth</t>
+          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>The students were asked to prune their essays.  学生们被要求修改文章。</t>
+          <t>don't go prying into other people's business  别去打探别人的事</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2337,17 +2325,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pry</t>
+          <t>pseudonym</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
+          <t>n. 假名，笔名： a fictitious name</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>don't go prying into other people's business  别去打探别人的事</t>
+          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2359,17 +2347,19 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>pseudonym</t>
+          <t>psychology</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>n. 假名，笔名： a fictitious name</t>
+          <t>n. 心理学： the science that deals with mental processes and behavior
+n. 心理战术： subtle tactical action or argument used to manipulate or influence another</t>
         </is>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
+          <t>She studied psychology in college.   她大学专业是心理学。
+He used poor psychology on his employer when trying to make the point.   他表达观点时，对老板用了拙劣的心理战术。</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
@@ -2381,19 +2371,17 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>psychology</t>
+          <t>pucker</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>n. 心理学： the science that deals with mental processes and behavior
-n. 心理战术： subtle tactical action or argument used to manipulate or influence another</t>
+          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
         </is>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>She studied psychology in college.   她大学专业是心理学。
-He used poor psychology on his employer when trying to make the point.   他表达观点时，对老板用了拙劣的心理战术。</t>
+          <t>pucker my lips  撅起嘴</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -2405,17 +2393,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>pucker</t>
+          <t>puckish</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
+          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>pucker my lips  撅起嘴</t>
+          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2427,17 +2415,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>puckish</t>
+          <t>puerile</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
+          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
+          <t>puerile remarks  幼稚的评论</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2449,17 +2437,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>puerile</t>
+          <t>puissance</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
+          <t>n. 权力： power; might</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>puerile remarks  幼稚的评论</t>
+          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2471,19 +2459,15 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>puissance</t>
+          <t>pulchritude</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 权力： power; might</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
-        </is>
-      </c>
+          <t>n. 美丽： great physical beauty and appeal</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2493,15 +2477,19 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pulchritude</t>
+          <t>pulverize</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>n. 美丽： great physical beauty and appeal</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr"/>
+          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
+        </is>
+      </c>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2511,17 +2499,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>pulverize</t>
+          <t>pun</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
+          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
+          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2533,19 +2521,15 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pun</t>
+          <t>punctilious</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
-        </is>
-      </c>
+          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2555,15 +2539,19 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>punctilious</t>
+          <t>pundit</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr"/>
+          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
+        </is>
+      </c>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2573,17 +2561,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pundit</t>
+          <t>pungent</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
+          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
+          <t>pungent language  辛辣讽刺的语言</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2595,19 +2583,15 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>pungent</t>
+          <t>puny</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>pungent language  辛辣讽刺的语言</t>
-        </is>
-      </c>
+          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2617,15 +2601,19 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>puny</t>
+          <t>purity</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr"/>
+          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
+        </is>
+      </c>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2635,17 +2623,19 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>purity</t>
+          <t>purlieu</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
+          <t>n. 常去的地方： a place for spending time or for socializing
+n. 临近的地区： an adjoining region or space</t>
         </is>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
+          <t>The restaurant, the preferred purlieu of the theatergoing crowd, is always packed an hour or two beforeshowtime.  观剧的人群经常去的那间餐厅，总是在演出开始前 1-2 小时爆满。
+We stopped at one of the several pubs in the purlieus of the stadium.   我们在体育馆附近的一间酒吧停下来。</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
@@ -2657,19 +2647,17 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>purlieu</t>
+          <t>purloin</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>n. 常去的地方： a place for spending time or for socializing
-n. 临近的地区： an adjoining region or space</t>
+          <t>vt. 偷窃： to steal, often in a violation of trust</t>
         </is>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>The restaurant, the preferred purlieu of the theatergoing crowd, is always packed an hour or two beforeshowtime.  观剧的人群经常去的那间餐厅，总是在演出开始前 1-2 小时爆满。
-We stopped at one of the several pubs in the purlieus of the stadium.   我们在体育馆附近的一间酒吧停下来。</t>
+          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2681,17 +2669,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>purloin</t>
+          <t>purvey</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>vt. 偷窃： to steal, often in a violation of trust</t>
+          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
+          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2703,17 +2691,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>purvey</t>
+          <t>pusillanimous</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
+          <t>adj. 懦弱的，胆小得令人鄙视的： lacking courage and resolution : marked by contemptible timidity</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
+          <t>pusillanimous politicians who vote according to whichever way the political wind is blowing  胆小懦弱的政客，舆论风向倒向谁就投票给谁</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2725,17 +2713,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>pusillanimous</t>
+          <t>quack</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>adj. 懦弱的，胆小得令人鄙视的： lacking courage and resolution : marked by contemptible timidity</t>
+          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>pusillanimous politicians who vote according to whichever way the political wind is blowing  胆小懦弱的政客，舆论风向倒向谁就投票给谁</t>
+          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2747,17 +2735,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>quack</t>
+          <t>quaff</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
+          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
+          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2769,17 +2757,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>quaff</t>
+          <t>quail</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
+          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
+          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2791,17 +2779,19 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>quail</t>
+          <t>qualify</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
+          <t>vt. 限定： to reduce from a general to a particular or restricted form
+v. 使有资格，有能力： to make competent (as by training, skill, or ability) for a particular office orfunction</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
+          <t>qualified support  有限的支持
+raising five children has qualified her to be an advice columnist on parenting  抚养五个孩子的经历让她成为了育儿板块的专栏作家</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
@@ -2813,19 +2803,17 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>qualify</t>
+          <t>quandary</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>vt. 限定： to reduce from a general to a particular or restricted form
-v. 使有资格，有能力： to make competent (as by training, skill, or ability) for a particular office orfunction</t>
+          <t>n. 困惑，窘境： a state of perplexity or doubt</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>qualified support  有限的支持
-raising five children has qualified her to be an advice columnist on parenting  抚养五个孩子的经历让她成为了育儿板块的专栏作家</t>
+          <t xml:space="preserve">I've had two job offers, and I'm in a real quandary about/over which one to accept.   我有两个工作机会,但实在是进退两难，不知道应该选哪一个.  </t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
@@ -2837,17 +2825,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>quandary</t>
+          <t>quarantine</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 困惑，窘境： a state of perplexity or doubt</t>
+          <t>n. 隔离： to isolate from normal relations or communication</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">I've had two job offers, and I'm in a real quandary about/over which one to accept.   我有两个工作机会,但实在是进退两难，不知道应该选哪一个.  </t>
+          <t>The cows will be kept in quarantine for another two weeks.   牛群还需要被隔离观察两周。</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2859,17 +2847,18 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>quarantine</t>
+          <t>quarry</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>n. 隔离： to isolate from normal relations or communication</t>
+          <t>n. 采石场： an open excavation or pit from which stone is obtained by digging, cutting, or blasting
+n. 目标，猎物： an object of pursuit</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>The cows will be kept in quarantine for another two weeks.   牛群还需要被隔离观察两周。</t>
+          <t>a hunter relentlessly tracking his quarry  无情捕杀猎物的猎人</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
@@ -2881,18 +2870,17 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>quarry</t>
+          <t>quash</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>n. 采石场： an open excavation or pit from which stone is obtained by digging, cutting, or blasting
-n. 目标，猎物： an object of pursuit</t>
+          <t>vt. 镇压，阻止： to put a stop to (something) by the use of force</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>a hunter relentlessly tracking his quarry  无情捕杀猎物的猎人</t>
+          <t>quash a rebellion  镇压一次叛变</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2904,17 +2892,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>quash</t>
+          <t>quaver</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. 镇压，阻止： to put a stop to (something) by the use of force</t>
+          <t>vt. 发颤音： to speak in a quivering voice; utter a quivering sound</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>quash a rebellion  镇压一次叛变</t>
+          <t>His voice quavered during the speech.  整个演讲过程中，他的声音都是颤抖的。</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2926,17 +2914,19 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>quaver</t>
+          <t>quell</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>vt. 发颤音： to speak in a quivering voice; utter a quivering sound</t>
+          <t>vt. 压制： to put down forcibly; suppress
+vt. 使平静，安静： to pacify; quiet</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>His voice quavered during the speech.  整个演讲过程中，他的声音都是颤抖的。</t>
+          <t>quell riot  镇压骚乱
+quell fears  减轻害怕</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
@@ -2948,19 +2938,18 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>quell</t>
+          <t>quench</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>vt. 压制： to put down forcibly; suppress
-vt. 使平静，安静： to pacify; quiet</t>
+          <t>vt. 熄灭： to put out (a fire, for example); extinguish.
+v. 使满足： to put a complete end to (a physical need or desire)</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>quell riot  镇压骚乱
-quell fears  减轻害怕</t>
+          <t>We thoroughly quenched the campfire before we headed to bed.  我们在睡前把营火完全熄灭了。</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
@@ -2972,18 +2961,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>quench</t>
+          <t>querulous</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>vt. 熄灭： to put out (a fire, for example); extinguish.
-v. 使满足： to put a complete end to (a physical need or desire)</t>
+          <t>adj. 抱怨的，爱发牢骚的： habitually complaining</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>We thoroughly quenched the campfire before we headed to bed.  我们在睡前把营火完全熄灭了。</t>
+          <t>a querulous voice  抱怨的声音</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2995,17 +2983,19 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>querulous</t>
+          <t>quibble</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>adj. 抱怨的，爱发牢骚的： habitually complaining</t>
+          <t>vi. 吹毛求疵： to find fault or criticize for petty reasons; cavil
+n. 牵强之词：微不足道的差别或不切中要点的异议，小反对： a minor objection or criticism</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>a querulous voice  抱怨的声音</t>
+          <t>she spent the entire evening quibbling about the historical inaccuracies in the television series on WorldWar II  她一整晚都在对那个关于二战的电视剧里的历史错误吹毛求疵
+My only quibble about the trip was that it rained a lot.   我对旅行唯一的小不满就是下雨有点多。</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
@@ -3017,19 +3007,17 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>quibble</t>
+          <t>quiescent</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>vi. 吹毛求疵： to find fault or criticize for petty reasons; cavil
-n. 牵强之词：微不足道的差别或不切中要点的异议，小反对： a minor objection or criticism</t>
+          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>she spent the entire evening quibbling about the historical inaccuracies in the television series on WorldWar II  她一整晚都在对那个关于二战的电视剧里的历史错误吹毛求疵
-My only quibble about the trip was that it rained a lot.   我对旅行唯一的小不满就是下雨有点多。</t>
+          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
@@ -3041,17 +3029,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>quiescent</t>
+          <t>quixotic</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
+          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
+          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3063,17 +3051,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>quixotic</t>
+          <t>quota</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
+          <t>n. 配额，限额： a proportional part or share</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
+          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3085,17 +3073,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>quota</t>
+          <t>quotidian</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>n. 配额，限额： a proportional part or share</t>
+          <t>adj. 平凡的： everyday; commonplace</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
+          <t>plagued by a quotidian coughing  每天被咳嗽困扰</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3107,17 +3095,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>quotidian</t>
+          <t>rabble</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>adj. 平凡的： everyday; commonplace</t>
+          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>plagued by a quotidian coughing  每天被咳嗽困扰</t>
+          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3129,17 +3117,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>rabble</t>
+          <t>rabid</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
+          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
+          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3151,17 +3139,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>rabid</t>
+          <t>racy</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
+          <t>adj. 活泼生动的： vigorous; lively</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
+          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3173,17 +3161,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>racy</t>
+          <t>raffish</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 活泼生动的： vigorous; lively</t>
+          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
+          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3195,17 +3183,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>raffish</t>
+          <t>raffle</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
+          <t>n. 垃圾，废物： discarded or useless material</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
+          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3217,17 +3205,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>raffle</t>
+          <t>rage</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n. 垃圾，废物： discarded or useless material</t>
+          <t>n./v. 暴怒： violent and uncontrolled anger</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
+          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3239,17 +3227,19 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>rage</t>
+          <t>ragged</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>n./v. 暴怒： violent and uncontrolled anger</t>
+          <t>adj. 衣衫褴褛的： dressed in tattered or threadbare clothes
+adj. 凹凸不平的，不光滑的： not having a level or smooth surface</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
+          <t>A ragged coat may cover an honest man.   不能以衣著取人。
+She cut herself on the ragged edge of the tin can's lid.   她被罐头盖的锋利边缘割伤了。</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
@@ -3261,19 +3251,17 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>ragged</t>
+          <t>rail</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>adj. 衣衫褴褛的： dressed in tattered or threadbare clothes
-adj. 凹凸不平的，不光滑的： not having a level or smooth surface</t>
+          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>A ragged coat may cover an honest man.   不能以衣著取人。
-She cut herself on the ragged edge of the tin can's lid.   她被罐头盖的锋利边缘割伤了。</t>
+          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
@@ -3285,17 +3273,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rail</t>
+          <t>rakish</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
+          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
+          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3307,44 +3295,36 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>rakish</t>
+          <t>ramble</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
-        <is>
-          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>ramble</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
         <is>
           <t>vi. 漫步，漫游： to move aimlessly from place to place
 vi. 漫谈；长篇大论（并经常离题）地说或写： to talk at length without sticking to a topic or getting toa point</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="C131" t="inlineStr">
         <is>
           <t>rambling under the starlight  在星光下漫步
 rambling around Beijing for a week  在北京四处漫游一周
 rambling on about dating, homework, movies, and the local football team  扯了一些关于约会、作业、电影以及本地橄榄球队的闲谈</t>
         </is>
       </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>rambunctious</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr"/>
+      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3354,11 +3334,19 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>rambunctious</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="inlineStr"/>
+          <t>ramshackle</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>adj. 摇摇欲坠的： appearing ready to collapse; rickety</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>a ramshackle cabin in the woods  树林中摇摇欲坠的小木屋</t>
+        </is>
+      </c>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3368,17 +3356,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>ramshackle</t>
+          <t>rancor</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>adj. 摇摇欲坠的： appearing ready to collapse; rickety</t>
+          <t>n. 敌意，深仇： a bitter deep-seated ill will</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>a ramshackle cabin in the woods  树林中摇摇欲坠的小木屋</t>
+          <t>A good man terminates a friendship without rancor.  君子绝交不记仇。</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3390,17 +3378,18 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>rancor</t>
+          <t>random</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>n. 敌意，深仇： a bitter deep-seated ill will</t>
+          <t>adj. 随机的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>A good man terminates a friendship without rancor.  君子绝交不记仇。</t>
+          <t>We received several answers and picked one at random.   我们收到了若干答案，并随机抽取了一个。
+aimless, arbitrary, desultory, erratic, haphazard, scattered, slapdash, stray</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -3412,18 +3401,17 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>random</t>
+          <t>rankle</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>adj. 随机的，随意的： lacking a definite plan, purpose, or pattern</t>
+          <t>vt. 激怒： to cause anger, irritation, or deep bitterness</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>We received several answers and picked one at random.   我们收到了若干答案，并随机抽取了一个。
-aimless, arbitrary, desultory, erratic, haphazard, scattered, slapdash, stray</t>
+          <t>It rankles me when some schools can't even afford paper and pencils for the students.   当 我 获 悉 有 些 学校连纸张和铅笔都无法提供给学生时，我感到十分愤怒。</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
@@ -3435,17 +3423,19 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>rankle</t>
+          <t>rant</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>vt. 激怒： to cause anger, irritation, or deep bitterness</t>
+          <t>n. （尤指长时间的）训斥，责骂： a long angry speech or scolding
+vi. 怒吼： to speak or write in a noisy, angry or violent manner</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>It rankles me when some schools can't even afford paper and pencils for the students.   当 我 获 悉 有 些 学校连纸张和铅笔都无法提供给学生时，我感到十分愤怒。</t>
+          <t>After complaining about the hotel’s lousy service, the woman went off on another rant about the conditionof her room.   在抱怨完旅店差劲的服务之后，她继续对房间的条件开骂。
+The old expert ranted that nobody paid any attention to his opinion.   老专家怒气冲冲的叫嚷说没人听他的观点。</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
@@ -3457,21 +3447,15 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>rant</t>
+          <t>rapacious</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>n. （尤指长时间的）训斥，责骂： a long angry speech or scolding
-vi. 怒吼： to speak or write in a noisy, angry or violent manner</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>After complaining about the hotel’s lousy service, the woman went off on another rant about the conditionof her room.   在抱怨完旅店差劲的服务之后，她继续对房间的条件开骂。
-The old expert ranted that nobody paid any attention to his opinion.   老专家怒气冲冲的叫嚷说没人听他的观点。</t>
-        </is>
-      </c>
+          <t>adj. 食量大的，贪食的： having a huge appetite</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3481,15 +3465,19 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>rapacious</t>
+          <t>rapport</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>adj. 食量大的，贪食的： having a huge appetite</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr"/>
+          <t>n. 和睦，友好： a friendly relationship marked by ready communication and mutual understanding</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>His good rapport with his students was one of the reasons why the school board named him Teacher of theYear.  他和学生的关系和睦是他被提名为“年度教师”的原因之一。</t>
+        </is>
+      </c>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3499,17 +3487,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>rapport</t>
+          <t>rapprochement</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 和睦，友好： a friendly relationship marked by ready communication and mutual understanding</t>
+          <t>n. 和睦，友好： establishment of or state of having cordial relations</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>His good rapport with his students was one of the reasons why the school board named him Teacher of theYear.  他和学生的关系和睦是他被提名为“年度教师”的原因之一。</t>
+          <t>an era of rapprochement betweenChina and Russia  中俄两国睦邻友好关系的新纪元</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3521,17 +3509,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>rapprochement</t>
+          <t>rapscallion</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 和睦，友好： establishment of or state of having cordial relations</t>
+          <t>n. 流氓，恶棍：a mean, evil, or unprincipled person</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>an era of rapprochement betweenChina and Russia  中俄两国睦邻友好关系的新纪元</t>
+          <t>an unsafe place frequented by drunkards and rapscallions  一个酒鬼和流氓经常造访的不安全的地方</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3543,17 +3531,19 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>rapscallion</t>
+          <t>rapt</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>n. 流氓，恶棍：a mean, evil, or unprincipled person</t>
+          <t>adj. 狂喜的： experiencing or marked by overwhelming usually pleasurable emotion
+adj. 全神贯注的：deeply absorbed; engrossed</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>an unsafe place frequented by drunkards and rapscallions  一个酒鬼和流氓经常造访的不安全的地方</t>
+          <t>a rock band that still attracts rapt crowds  一个仍然拥有者狂热粉丝的乐队
+With a mixture of delight and awe, the rapt children stared at the chick in the incubator breaking out of itsshell.  怀着愉快和敬畏的复杂心理，孩子们全神贯注地盯着孵化箱中的小鸡破壳而出。</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -3565,19 +3555,17 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>rapt</t>
+          <t>rash</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>adj. 狂喜的： experiencing or marked by overwhelming usually pleasurable emotion
-adj. 全神贯注的：deeply absorbed; engrossed</t>
+          <t>adj. 草率的，仓促的： marked by or proceeding from undue haste or lack of deliberation or caution</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>a rock band that still attracts rapt crowds  一个仍然拥有者狂热粉丝的乐队
-With a mixture of delight and awe, the rapt children stared at the chick in the incubator breaking out of itsshell.  怀着愉快和敬畏的复杂心理，孩子们全神贯注地盯着孵化箱中的小鸡破壳而出。</t>
+          <t>That was too rash a move: for now you've lost your bishop and probably the whole chess game.   那 一 招棋着实是太草率了，现在你丢掉了象，很有可能会输掉整场比赛。</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -3589,17 +3577,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rash</t>
+          <t>rarefy</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>adj. 草率的，仓促的： marked by or proceeding from undue haste or lack of deliberation or caution</t>
+          <t>vt. 使稀薄： to make rare, thin, porous, or less dense: to expand without the addition of matter</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>That was too rash a move: for now you've lost your bishop and probably the whole chess game.   那 一 招棋着实是太草率了，现在你丢掉了象，很有可能会输掉整场比赛。</t>
+          <t>rarefy the air  使空气变得稀薄</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3611,17 +3599,19 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>rarefy</t>
+          <t>raspy</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>vt. 使稀薄： to make rare, thin, porous, or less dense: to expand without the addition of matter</t>
+          <t>adj. 声音刺耳的： harsh and dry in sound
+adj. 容易生气的： easily irritated or annoyed</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>rarefy the air  使空气变得稀薄</t>
+          <t>The dying man was speaking in a raspy and barely discernible voice.   将死的人在用一种沙哑刺耳且难以听清的语调说话。
+Overwork tends to make him raspy.   过度的工作让他变得烦躁易怒。</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -3633,19 +3623,17 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>raspy</t>
+          <t>ratify</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>adj. 声音刺耳的： harsh and dry in sound
-adj. 容易生气的： easily irritated or annoyed</t>
+          <t>vt. （官方地）认可，批准： to give official acceptance of as satisfactory</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>The dying man was speaking in a raspy and barely discernible voice.   将死的人在用一种沙哑刺耳且难以听清的语调说话。
-Overwork tends to make him raspy.   过度的工作让他变得烦躁易怒。</t>
+          <t>Lincoln's home state of Illinois was the first to ratify the 13th Amendment to the U.  S.   Constitution, whichprovided for the abolition of slavery.   林肯的老家——伊利诺伊是美国第一个通过《宪法第十三修正案》的州，该决案提供了废除奴隶制的法律基础。</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
@@ -3657,17 +3645,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ratify</t>
+          <t>ratiocination</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>vt. （官方地）认可，批准： to give official acceptance of as satisfactory</t>
+          <t>n. 推理： the thought processes that have been established as leading to valid solutions to problems</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Lincoln's home state of Illinois was the first to ratify the 13th Amendment to the U.  S.   Constitution, whichprovided for the abolition of slavery.   林肯的老家——伊利诺伊是美国第一个通过《宪法第十三修正案》的州，该决案提供了废除奴隶制的法律基础。</t>
+          <t>As an expert in ratiocination, the detective Sherlock Holmes has few rivals.  作为推理专家，大侦探福尔摩斯可谓无人能及。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3679,17 +3667,19 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>ratiocination</t>
+          <t>ration</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>n. 推理： the thought processes that have been established as leading to valid solutions to problems</t>
+          <t>n. 定额供应量，配给量： an amount allotted or made available especially from a limited supply
+vt. 按比例分配： to give as a share or portion</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>As an expert in ratiocination, the detective Sherlock Holmes has few rivals.  作为推理专家，大侦探福尔摩斯可谓无人能及。</t>
+          <t>The meat ration was down to one pound per person per week.   肉的人均供给量降至了每周一磅。
+The region has had to ration water during times of drought.   干旱时该地区不得不按比例分配水资源。</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -3701,19 +3691,19 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>ration</t>
+          <t>rational</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>n. 定额供应量，配给量： an amount allotted or made available especially from a limited supply
-vt. 按比例分配： to give as a share or portion</t>
+          <t>adj. 合乎逻辑的： consistent with or based on reason; logical
+adj. 理性的： based on sound reasoning or information</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>The meat ration was down to one pound per person per week.   肉的人均供给量降至了每周一磅。
-The region has had to ration water during times of drought.   干旱时该地区不得不按比例分配水资源。</t>
+          <t>He insisted there was a rational explanation for the strange creaking noises and that there were no suchthings as ghosts.   他坚持认为奇怪的咯吱声一定有一个合理的解释，而不是所谓的鬼在作怪。
+Betting all of your savings on the lottery is not a rational move.   把你所有的存款赌在彩票上可不是一个理智的决定。</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
@@ -3725,19 +3715,19 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>rational</t>
+          <t>rave</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>adj. 合乎逻辑的： consistent with or based on reason; logical
-adj. 理性的： based on sound reasoning or information</t>
+          <t>vi. 狂热赞扬： to make an exaggerated display of affection or enthusiasm
+vi. （发疯般地）怒吼： to talk irrationally and wildly in or as if in delirium</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>He insisted there was a rational explanation for the strange creaking noises and that there were no suchthings as ghosts.   他坚持认为奇怪的咯吱声一定有一个合理的解释，而不是所谓的鬼在作怪。
-Betting all of your savings on the lottery is not a rational move.   把你所有的存款赌在彩票上可不是一个理智的决定。</t>
+          <t>Critics raved about the new play.   新剧得到了评论家们的热烈赞扬。
+a man standing outside the city hall,raving like a lunatic about his tax bill  站在市政大厅外、像疯子一样叫嚷着自己税单的人</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -3749,19 +3739,17 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>rave</t>
+          <t>ravel</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>vi. 狂热赞扬： to make an exaggerated display of affection or enthusiasm
-vi. （发疯般地）怒吼： to talk irrationally and wildly in or as if in delirium</t>
+          <t>vt. 解开，松开： to separate the various strands of</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Critics raved about the new play.   新剧得到了评论家们的热烈赞扬。
-a man standing outside the city hall,raving like a lunatic about his tax bill  站在市政大厅外、像疯子一样叫嚷着自己税单的人</t>
+          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -3773,17 +3761,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ravel</t>
+          <t>ravish</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vt. 解开，松开： to separate the various strands of</t>
+          <t>vt. 使陶醉，使沉迷： to overcome with emotion (as wonder or delight)</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。</t>
+          <t>I was completely ravished by those marvelous pictures taken by HST.  那些哈勃太空望远镜拍摄的壮观图片让我彻底的陶醉了。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3795,17 +3783,18 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>ravish</t>
+          <t>raze</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>vt. 使陶醉，使沉迷： to overcome with emotion (as wonder or delight)</t>
+          <t>vt. 摧毁，粉碎： to destroy completely by or as if by knocking down or breaking to pieces</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>I was completely ravished by those marvelous pictures taken by HST.  那些哈勃太空望远镜拍摄的壮观图片让我彻底的陶醉了。</t>
+          <t>Excavators were began to raze old school building.  挖土机开始夷平学校的老建筑。
+An entire cityblock razed by a terrible fire.  大火摧毁了整个街区。</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -3817,43 +3806,20 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>raze</t>
+          <t>react</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>vt. 摧毁，粉碎： to destroy completely by or as if by knocking down or breaking to pieces</t>
+          <t>vt. 做出反应： to act or behave in response (as to a stimulus or influence)</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Excavators were began to raze old school building.  挖土机开始夷平学校的老建筑。
-An entire cityblock razed by a terrible fire.  大火摧毁了整个街区。</t>
+          <t>didn't know how to react to the cheers of the crowd  不知如何对人群的欢呼声做出回应</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>react</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>vt. 做出反应： to act or behave in response (as to a stimulus or influence)</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>didn't know how to react to the cheers of the crowd  不知如何对人群的欢呼声做出回应</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>

--- a/result/生词本导入模版_5.xlsx
+++ b/result/生词本导入模版_5.xlsx
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D154"/>
+  <dimension ref="A1:D155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,117 +434,117 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>单词</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>含义（可不填）</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>例句（可不填）</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>标签（可不填，多个标签请用英文逗号分隔）</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
         <is>
           <t>precipitate</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>adj. 匆忙的： acting or done with excessive or careless speed
 vt. 促使，导致： to cause to happen, especially suddenly or prematurely</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>the army's precipitate withdrawal from the field of battle  匆忙将军队从战场上撤下
 to precipitate an international crisis  产生国际危机</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
         <is>
           <t>precipitation</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>n. 沉积物，尤指降水： something precipitated as a deposit on the earth of hail, mist, rain, sleet, orsnow
 n. 仓促： excited and often showy or disorderly speed</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>The storm brought several inches of precipitation.   风暴带来的降水量高达数英尺。
 I fear that I may have acted with some precipitation on this matter, so I would like to reconsider.   我 害 怕自己在这个事情上考虑得太仓促了，因此我想再想想。</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
         <is>
           <t>precipitous</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>adj. 非常陡峭的：very steep, perpendicular, or overhanging in rise or fall
 adj. 匆忙的： acting or done with excessive or careless speed</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>a precipitous gorge  险峻的峡谷
 They soon regretted their precipitous actions in international affairs  他们很快就为他们在国际事务中的匆忙举动感到后悔。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
         <is>
           <t>preclude</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>vt. 预先阻止： to make impossible, as by action taken in advance
 vt. 排斥 ：to exclude or prevent (someone) from a given condition or activity</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>Age alone will not preclude him from standing as a candidate.   年龄并没有阻止他成为候选人。
 He refused to preclude the subject from discussion .  他拒绝将这个话题排出讨论范围。</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>precursor</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
-        </is>
-      </c>
       <c r="D5" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -542,17 +554,17 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>predecessor</t>
+          <t>precursor</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
+          <t>n. 先驱者，先导： one that precedes and indicates the approach of another</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
+          <t>18th-century lyric poets like Robert Burns were precursors of the Romantics.   十八世纪的抒情诗人（如罗伯特·彭斯）是浪漫主义的先驱。</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -564,17 +576,17 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>predilection</t>
+          <t>predecessor</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
+          <t>n. 前任，先辈： a person who has previously occupied a position or office to which another hassucceeded</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>a predilection for travel  热爱旅行</t>
+          <t>a political legacy left by his predecessor  他的前任留下来的政治遗产</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -586,17 +598,17 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>preeminent</t>
+          <t>predilection</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
+          <t>n. 爱好，偏袒：a partiality or disposition in favor of something</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
+          <t>a predilection for travel  热爱旅行</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -608,68 +620,68 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>preeminent</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>adj. 优秀的，重要的：having paramount rank, dignity, or importance</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>The writer's style is brilliant and his command of words, preeminent.   作者的文风和用词都十分出色</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
           <t>preempt</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>vt. 预先占有： to appropriate, seize, or take for oneself before others
 v. 替换：to replace with something considered to be of greater value or priority: take precedence over</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>The naughty children had preempted front-row seats that were reserved for the guests of honor.   调 皮 的孩子们把前排留给贵客的座位占了。
 The special newscast preempted the usual television program.   特别新闻取代了常规节目。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
         <is>
           <t>preen</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>vt. 整理（羽毛）：to smooth or clean (feathers) with the beak or bill
 vt. 打扮修饰： to dress or groom (oneself) with elaborate care
 vt. 自满： to take pride or satisfaction in (oneself)</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>She always preen herself in an elaborate suit before going to the opera.   她去听歌剧之前总要精心打扮一番，穿上最豪华的服装。
 He always preen himself on his ancestry.   他总是因为他的血统而洋洋得意</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>preface</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
-        </is>
-      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -679,43 +691,43 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
+          <t>preface</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>n. 序言：a preliminary statement or essay introducing a book that explains its scope, intention, orbackground and is usually written by the author</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>An informal brunch served as a preface to the three-day conference.   一顿非正式的便餐作为为期三天的会议的序曲。</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
           <t>pregnant</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>adj. 重要的，意味深长的： weighty or significant; full of meaning
 adj. 怀孕的：containing a developing embryo, fetus, or unborn offspring within the body</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>the pregnant phrases of the Bible《圣经》中充满哲理的话语
 Being pregnant represents great news, but it comes with a lot of responsibilities.   怀孕是件大好事，但是它也带来了许多的责任。</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>premeditate</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
-        </is>
-      </c>
       <c r="D13" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -725,17 +737,17 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>preoccupation</t>
+          <t>premeditate</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
+          <t>vi. 预先考虑： to think, consider, or deliberate beforehand</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
+          <t>carefully premeditating each step of his plan  细致谋略他计划的每一步</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -747,17 +759,17 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>preponderant</t>
+          <t>preoccupation</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
+          <t>n. 非常关心，全神贯注： extreme or excessive concern with something</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>a preponderant misconception  一个影响甚广的错误概念</t>
+          <t>He kept sinking back into gloomy preoccupation.   他陷入了深深的忧虑之中。</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -769,17 +781,17 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>prepossessing</t>
+          <t>preponderant</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>adj. 给人好感的：serving to impress favorably</t>
+          <t>adj. 占优势的，更重要的： having superior weight, force, importance, or influence</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
+          <t>a preponderant misconception  一个影响甚广的错误概念</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -791,17 +803,17 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>preposterous</t>
+          <t>prepossessing</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
+          <t>adj. 给人好感的：serving to impress favorably</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
+          <t>He was fascinated by her prepossessing appearance at first sight.   他第一眼就被她迷人的外表吸引了。</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -813,43 +825,43 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
+          <t>preposterous</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>adj. 荒谬的，不符合常理的： contrary to nature, reason, or common sense</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>a preposterous conclusion of quantum mechanics  量子力学里有悖于常理的结论</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>presage</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>n. 征兆： something believed to be a sign or warning of a future event
 vt. 预示，预言： to foretell or predict</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>The sight of the first robin is always a welcome presage of spring.  第一只知更鸟的出现总是迎接春天到来的象征
 The incident may presage war.   这个事件可能是战争的征兆</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>prescience</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
-        </is>
-      </c>
       <c r="D19" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -859,11 +871,19 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>prescription</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="inlineStr"/>
+          <t>prescience</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>n. 预知，先见： knowledge of actions or events before they occur</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Most believers would probably agree that complete prescience is one of God's attributes.   所 有 的 信 徒大概都会同意上帝能够预见未来</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -873,19 +893,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>preservative</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>containing no chemical preservative  不含化学防腐剂</t>
-        </is>
-      </c>
+          <t>prescription</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -895,17 +907,17 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>prestige</t>
+          <t>preservative</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
+          <t>n. 防腐剂： an additive used to protect against decay, discoloration, or spoilage</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
+          <t>containing no chemical preservative  不含化学防腐剂</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -917,64 +929,64 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
+          <t>prestige</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>n. 声望，威望： the level of respect at which one is regarded by others</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>The prestige of the university has been irrevocably impaired by the plagiarism scandal.   这 所 大 学 的 声 望已经因剽窃丑闻而受到了不可挽回的损失。</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
           <t>presumptuous</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B24" t="inlineStr">
         <is>
           <t>adj. 放肆的，冒昧的： overstepping due bounds (as of propriety or courtesy)
 adj. 傲慢的： having a feeling of superiority that shows itself in an overbearing attitude</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="C24" t="inlineStr">
         <is>
           <t>Under such a circumstance his demand for attention was utterly presumptuous.  在 那 种 情况 下 他要 求被关注是极其冒昧的
 The presumptuous doctor didn't even bother to explain to me the treatment that I would be receiving.   傲慢的医生连给我说明我会接受何种治疗的耐性都没有。</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>pretense</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B25" t="inlineStr">
         <is>
           <t>n. 虚假，伪装： the act of pretending; a false appearance or action intended to deceive
 n. 自大，优越感： an exaggerated sense of one's importance that shows itself in the making ofexcessive or unjustified claims</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>There is too much pretense in his piety.   他的虔诚大多都是伪装。</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>preternatural</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -986,15 +998,19 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>prevail</t>
+          <t>preternatural</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
+          <t>adj. 超乎寻常的： surpassing the normal or usual</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>They exhibited preternatural courage in face of danger.   他们在危险面前显示出了超乎寻常的勇气。</t>
+        </is>
+      </c>
       <c r="D26" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1004,19 +1020,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>prevalent</t>
+          <t>prevail</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
-        </is>
-      </c>
+          <t>vi. 盛行，战胜： to be greater in strength or influence</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1026,17 +1038,17 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>prevaricate</t>
+          <t>prevalent</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
+          <t>adj. 流行的，普遍的： widely or commonly occurring, existing, accepted, or practiced</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
+          <t>The kinds of accidents are frequently seen in places where snowmobiles are prevalent.   这 种 类 型 的 事 故在摩托雪橇盛行的地区是很常见的。</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1048,17 +1060,17 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>primordial</t>
+          <t>prevaricate</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
+          <t>vi. 支吾其词，撒谎： to stray from or evade the truth</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>primordial forms of life  最原始的生命形态</t>
+          <t>During the hearings the witness did his best to prevaricate.   听证会上证人在竭尽全力地支吾其词。</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1070,17 +1082,17 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>primp</t>
+          <t>primordial</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
+          <t>adj. 原始的，最初的： being or happening first in sequence of time</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
+          <t>primordial forms of life  最原始的生命形态</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1092,17 +1104,17 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>principal</t>
+          <t>primp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
+          <t>v. 精心打扮： to dress, adorn, or arrange in a careful or finicky manner</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
+          <t>She primps for hours before a date.   她出门约会前要花数小时打扮。</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1114,11 +1126,19 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>pristine</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="inlineStr"/>
+          <t>principal</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>adj. 主要的，重要的： first, highest, or foremost in importance, rank, worth, or degree</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>The region's principal city is getting hammered by a series of terrorist attacks.   该地区的中心城市正在被一系列恐怖袭击攻击。</t>
+        </is>
+      </c>
       <c r="D32" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1128,19 +1148,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>privation</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
-        </is>
-      </c>
+          <t>pristine</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr"/>
+      <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1150,17 +1162,17 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>probe</t>
+          <t>privation</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>v./n. 深入调查： a penetrating or critical investigation</t>
+          <t>n. 缺乏，穷困： lack of what is needed for existence</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>probe into his background  深入调查他的背景</t>
+          <t>the constant privation of sleep was starting to affect his work  长期以来的睡眠不足开始影响他的工作</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1172,17 +1184,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>probity</t>
+          <t>probe</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>n. 正直： faithfulness to high moral standards</t>
+          <t>v./n. 深入调查： a penetrating or critical investigation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
+          <t>probe into his background  深入调查他的背景</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1194,17 +1206,17 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>proclivity</t>
+          <t>probity</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
+          <t>n. 正直： faithfulness to high moral standards</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
+          <t>a person of indisputable probity should head the disciplinary panel  一个绝对正直的人应该来领导纪律委员会</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1216,17 +1228,17 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>procrastinate</t>
+          <t>proclivity</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
+          <t>n. 癖性，偏好： a natural propensity or inclination; predisposition</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
+          <t>showed artistic proclivities at an early age  在很小的时候就表现除了对艺术的喜好</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1238,17 +1250,17 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>procure</t>
+          <t>procrastinate</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>vt. 获得，取得： to get possession of</t>
+          <t>vi. （因为懒散）拖延： to put off doing something, especially out of habitual carelessness or laziness</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
+          <t>She procrastinated and missed the submission deadline.  她一直拖拖拉拉，导致错过了截止日期。</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1260,17 +1272,17 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>prod</t>
+          <t>procure</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
+          <t>vt. 获得，取得： to get possession of</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
+          <t>procured the prisoner's release  得到了释放囚犯的许可</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1282,17 +1294,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>prodigal</t>
+          <t>prod</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>adj. 挥霍的： recklessly spendthrift</t>
+          <t>vt. 促使……行动： to try to persuade (someone) through earnest appeals to follow a course of action</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
+          <t>The strike may prod the government into action.   罢工也许会迫使政府采取行动。</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1304,63 +1316,67 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
+          <t>prodigal</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>adj. 挥霍的： recklessly spendthrift</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>prodigal outlays for her clothes  买衣服时挥金如土</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
           <t>prodigious</t>
         </is>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B42" t="inlineStr">
         <is>
           <t>adj. 巨大的： impressively great in size, force, or extent; enormous
 adj. 惊人的，了不起的： causing wonder or astonishment</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="C42" t="inlineStr">
         <is>
           <t>a prodigious supply of canned food kept in the basement  地下室贮存着大量罐头食品
 stage magicians performing prodigious feats for rapt audiences  舞台魔术师在全神贯注的观众们面前表演</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
         <is>
           <t>profane</t>
         </is>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>v. 亵渎： to treat (something sacred) with abuse, irreverence, or contempt
 v. 滥用： to put to a bad or improper use</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>invading troops profaned the altar by playing poker on it  侵略军亵渎了祭坛，竟然在上面打扑克
 profaned his considerable acting talents by appearing in some wretched movies  在一些烂俗的电影里面出现简直就是浪费表演才华</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>proffer</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>v./n. 献出，提供： to offer for acceptance; tender</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1370,19 +1386,15 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>proficient</t>
+          <t>proffer</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>proficient in translating foreign languages  精通外语翻译</t>
-        </is>
-      </c>
+          <t>v./n. 献出，提供： to offer for acceptance; tender</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1392,45 +1404,45 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
+          <t>proficient</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>adj. 熟练的，精通的： having or marked by an advanced degree of competence, as in an art, vocation,profession, or branch of learning</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>proficient in translating foreign languages  精通外语翻译</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
           <t>profligate</t>
         </is>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>adj./n. 挥金如土的，挥霍的： recklessly wasteful; wildly extravagant
 n. 败家子： someone who spends money freely or foolishly
 n. 堕落的人： a person who has sunk below the normal moral standard</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>leading a profligate life  过着骄奢淫逸的生活
 profligate who could not really afford the grand style he maintained at Monticello, Jefferson died deeply indebt  再也支撑不了在蒙蒂塞洛之时的大手大脚的作风，败家子杰斐逊最终深陷债务危机
 a drunken profligate, he was given to wretched excess in every aspect of his life  一个喝醉的堕落的人，在生活的方方面面都日趋堕落</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>profundity</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>n. 深奥，深刻： something profound or abstruse</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
-        </is>
-      </c>
       <c r="D46" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1440,64 +1452,64 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
+          <t>profundity</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>n. 深奥，深刻： something profound or abstruse</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>His books are a mixture of playfulness and profundity.   他的作品都是搞笑和深刻的结合体。</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
           <t>profusion</t>
         </is>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B48" t="inlineStr">
         <is>
           <t>n. 丰富，大量： the state of being profuse; abundance
 n. 挥霍，浪费： the quality or fact of being free or wasteful in the expenditure of money</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="C48" t="inlineStr">
         <is>
           <t>snow falling in profusion  雪量很大
 in giving gifts to his girlfriend, he was generous to the point of profusion  对于给女朋友的礼物支出一项，他慷慨到了几乎奢侈的地步</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
         <is>
           <t>prohibitive</t>
         </is>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B49" t="inlineStr">
         <is>
           <t>adj. 禁止的；阻止的： tending to prohibit or restrain
 adj. （价格高得）抑制购买的： so high or burdensome as to discourage purchase or use</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="C49" t="inlineStr">
         <is>
           <t>prohibitive prices  抑制购买的高价</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>proliferate</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -1509,17 +1521,17 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>prolix</t>
+          <t>proliferate</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
+          <t>vi. 快速繁殖，激增： to grow or multiply by rapidly producing new tissue, parts, cells, or offspring</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
+          <t>rumors about the accident proliferated on the Internet  关于事故的小道消息在网上迅速扩散</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1531,17 +1543,17 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>prologue</t>
+          <t>prolix</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>n. 序言： the preface or introduction to a literary work</t>
+          <t>adj. 罗嗦的，冗长的： tending to speak or write at excessive length</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
+          <t>habitually transforms brief anecdotes into prolix sagas that exhaust his listeners  总 是 将 简短 的 小趣 事变成冗长的传说故事，让听众很疲倦</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1553,17 +1565,17 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>prolong</t>
+          <t>prologue</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
+          <t>n. 序言： the preface or introduction to a literary work</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
+          <t>the burglary, which he committed while still a teen, was but a prologue to a wasted life of crime  他 青 少年时犯过的入室抢劫拉开了他偷盗生涯的序幕</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -1575,17 +1587,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>proofread</t>
+          <t>prolong</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
+          <t>vt. 延长，拖延： to lengthen in extent, scope, or range</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
+          <t>Additives are used to prolong the shelf life of packaged food.  添加剂被用来延长包装食品的保存期限。</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -1597,17 +1609,17 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>promulgate</t>
+          <t>proofread</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>vt. 正式宣布： to make known openly or publicly</t>
+          <t>vt. 校对： to read (copy or proof) in order to find errors and mark corrections</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
+          <t>She proofread the paper carefully.  她仔细把论文校对了。</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -1619,43 +1631,43 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
+          <t>promulgate</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>vt. 正式宣布： to make known openly or publicly</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>The law was promulgated in June 1988.   法律在 1988 年 6 月出台。</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
           <t>propagate</t>
         </is>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B56" t="inlineStr">
         <is>
           <t>v. 繁殖： to cause to continue or increase by sexual or asexual reproduction
 vt. 传播，宣传： to cause to spread out and affect a greater number or greater area: extend</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="C56" t="inlineStr">
         <is>
           <t>the dams along the river are interfering with the salmon's ability to propagate  河上的大坝影响了大马哈鱼的繁殖
 the various ways in which churches can propagate the faith  不同的宣传教义的方法</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>propensity</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
-        </is>
-      </c>
       <c r="D56" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1665,17 +1677,17 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>prophetic</t>
+          <t>propensity</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>adj. 预言的，预示的： foretelling events：predictive</t>
+          <t>n. 倾向，癖好： an often intense natural inclination or preference</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
+          <t>a neighbor who has an unfortunate propensity for snooping  好管闲事的邻居</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -1687,17 +1699,17 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>propitiate</t>
+          <t>prophetic</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
+          <t>adj. 预言的，预示的： foretelling events：predictive</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
+          <t>those lower-than-expected sales numbers were a prophetic indicator of the financial trouble the companywould soon be in  那些低于预期的销售数字就是公司即将陷入的金融危机的先兆</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -1709,17 +1721,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>propitious</t>
+          <t>propitiate</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
+          <t>vt. 慰抚，劝解： to conciliate (an offended power); appease</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>propitious sign  吉祥的征兆</t>
+          <t>the temple was built to honor the gods in times of plenty and to propitiate them in times of trouble  该庙宇的作用是，丰收之时感谢神明，有难之时安抚神明</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -1731,17 +1743,17 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>proponent</t>
+          <t>propitious</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
+          <t>adj. 吉祥的： favorably disposed: pointing toward a happy outcome</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
+          <t>propitious sign  吉祥的征兆</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -1753,43 +1765,43 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>proponent</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>n. 建议者，支持者： one who argues in support of something; an advocate</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>a proponent of the use of electric-powered cars  电动能源汽车的支持者</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
           <t>propriety</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B62" t="inlineStr">
         <is>
           <t>n. 礼节： conformity to what is socially acceptable in conduct or speech
 n. 适当得体： the quality or state of being especially suitable or fitting</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="C62" t="inlineStr">
         <is>
           <t>When attending a wedding, there are certain proprieties that must be followed.  参加婚礼时，有一些礼节需要遵守。
 I'm not sure about the propriety of serving champagne in these glasses.   我不确定在这种杯子里倒香槟是否得体。</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>prosaic</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>prosaic advice  老掉牙的建议</t>
-        </is>
-      </c>
       <c r="D62" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1799,17 +1811,17 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>proscribe</t>
+          <t>prosaic</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>vt. 禁止，排斥： to prohibit; forbid</t>
+          <t>adj. 单调的，常见的： being of the type that is encountered in the normal course of events</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>acts proscribed by law  被法律禁止的行为</t>
+          <t>prosaic advice  老掉牙的建议</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -1821,17 +1833,17 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>prosecution</t>
+          <t>proscribe</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>n. 实行，执行： the doing of an action</t>
+          <t>vt. 禁止，排斥： to prohibit; forbid</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
+          <t>acts proscribed by law  被法律禁止的行为</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -1843,17 +1855,17 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>proselytize</t>
+          <t>prosecution</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
+          <t>n. 实行，执行： the doing of an action</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
+          <t>oversaw the prosecution of the president's foreign policy  监督总统对外政策的执行情况</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -1865,39 +1877,43 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
+          <t>proselytize</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>v. 改变信仰： to persuade to change to one's religious faith</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>The efforts of early missionaries to proselytize the Native Americans of Minnesota were largelyunproductive.  早期传教士对于明尼苏达的土著人的改变信仰的努力大多无功而返。</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
           <t>prospect</t>
         </is>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B67" t="inlineStr">
         <is>
           <t>vi. 探查，勘探： to go into or range over for purposes of discovery
 n. 期待，被期望的某物： the act or state of looking forward to some occurrence</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="C67" t="inlineStr">
         <is>
           <t>people had arrived in the valley to prospect it for gold  人们来到山谷淘金
 The prospect of a quiet, restful Sunday ended when our basement flooded.  对一个宁静休闲的周日的期待被地下室涨水打破了。</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>prosperous</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1907,43 +1923,39 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
+          <t>prosperous</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>adj. 成功的，繁盛的： marked by vigorous growth and well-being especially economically</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
           <t>prostrate</t>
         </is>
       </c>
-      <c r="B68" t="inlineStr">
+      <c r="B69" t="inlineStr">
         <is>
           <t>adj./v. 平躺： lying flat or at full length
 adj./v. 衰弱的/使衰竭： to reduce to extreme weakness or incapacitation</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
+      <c r="C69" t="inlineStr">
         <is>
           <t>He was lying prostrate on the bed.   他平躺在床上。
 illness that prostrated an entire family  将整个家庭拖垮的疾病</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>protean</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
-        </is>
-      </c>
       <c r="D69" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1953,17 +1965,17 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>protocol</t>
+          <t>protean</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>n. 正确的礼仪规范： a code of correct conduct</t>
+          <t>adj. 善变的，多才多艺的： displaying great diversity or variety; versatile</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>a breach of protocol  社交礼仪的破坏</t>
+          <t xml:space="preserve">He loved to show off his protean talent.   他喜欢炫耀自己多样的才华.  </t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -1975,15 +1987,19 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>protract</t>
+          <t>protocol</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr"/>
+          <t>n. 正确的礼仪规范： a code of correct conduct</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>a breach of protocol  社交礼仪的破坏</t>
+        </is>
+      </c>
       <c r="D71" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -1993,19 +2009,15 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>protrude</t>
+          <t>protract</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>vi. 突出： to jut out; project; bulge</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
-        </is>
-      </c>
+          <t>vt. 延长，拖长： to draw out or lengthen in time; prolong</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2015,17 +2027,17 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>protuberant</t>
+          <t>protrude</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
+          <t>vi. 突出： to jut out; project; bulge</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>protuberant eyes  暴鱼眼</t>
+          <t>a handkerchief protruding from his breast pocket  手帕从他的上衣口袋里突出出来</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2037,43 +2049,43 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
+          <t>protuberant</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>adj. 隆起的，凸出的： thrusting out from a surrounding or adjacent surface often as a rounded mass</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>protuberant eyes  暴鱼眼</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
           <t>provident</t>
         </is>
       </c>
-      <c r="B74" t="inlineStr">
+      <c r="B75" t="inlineStr">
         <is>
           <t>adj. 节俭的： frugal; economical
 adj. 有远见的： having or showing awareness of and preparation for the future</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
+      <c r="C75" t="inlineStr">
         <is>
           <t>it is possible to be provident without being miserly  人可以做到节俭但不吝啬
 her provident measures kept us safe while we waited out the hurricane  她之前有远见的准备让我等待飓风结束的期间安全无恙</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>providential</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>a providential escape  幸运的逃脱</t>
-        </is>
-      </c>
       <c r="D75" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2083,17 +2095,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>provincial</t>
+          <t>providential</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
+          <t>adj. 天意的，幸运的： happening as if through divine intervention</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
+          <t>a providential escape  幸运的逃脱</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -2105,17 +2117,17 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>provisional</t>
+          <t>provincial</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
+          <t>adj./n. 狭隘的： limited in perspective; narrow and self-centered</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
+          <t>an artist who has been criticized for being provincial  一个被批评非常狭隘的艺术家</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -2127,15 +2139,19 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>provisory</t>
+          <t>provisional</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the time</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr"/>
+          <t>adj. 临时的： provided or serving only for the time being; temporary</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>he was appointed provisional executor of the industrialist's vast estate  他被任命为庞大工业帝国的临时执行官</t>
+        </is>
+      </c>
       <c r="D78" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2145,43 +2161,39 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
+          <t>provisory</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>adj. 有附带条件的，临时的： depending on a proviso; conditional; serving in a position for the time</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
           <t>provoke</t>
         </is>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B80" t="inlineStr">
         <is>
           <t>vt. 激怒： to incite to anger or resentment
 vt. 驱使，激起： to stir to action or feeling</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C80" t="inlineStr">
         <is>
           <t>his teasing finally provoked her to anger  他的调戏最终把她激怒了
 rankings that are sure to provoke an argument among film critics  排名必将引发影评家们的争论</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>prowess</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>his prowess on the football field  他在球场上过人的勇气</t>
-        </is>
-      </c>
       <c r="D80" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2191,17 +2203,17 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>prowl</t>
+          <t>prowess</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
+          <t>n. 英勇，勇敢： superior strength, courage, or daring, especially in battle</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
+          <t>his prowess on the football field  他在球场上过人的勇气</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
@@ -2213,17 +2225,17 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>prude</t>
+          <t>prowl</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
+          <t>vt. 潜行，巡游以猎取食物： to roam through stealthily, as in search of prey or plunder</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
+          <t>I prowled the shop looking for sales.   我在商店里转悠，寻找打折商品。</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
@@ -2235,17 +2247,17 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>prudish</t>
+          <t>prude</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>adj. 过分守礼的： marked by prudery</t>
+          <t>n. 过分正经的人：一个过分关心自己是否是或显得得体、谦逊或正确的人： a person who is greatlyconcerned with seemly behavior and morality especially regarding sexual matters</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
+          <t>the racy sitcom frequently satirizes exactly the sort of prude who would like to see the show taken off theair</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
@@ -2257,63 +2269,63 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
+          <t>prudish</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>adj. 过分守礼的： marked by prudery</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>By the prudish standards of the 19th century, any depiction of the nude was scandalous.  根据 19 世纪的保守标准，任何对裸露的刻画描述都是下流无耻的。</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
           <t>prudent</t>
         </is>
       </c>
-      <c r="B84" t="inlineStr">
+      <c r="B85" t="inlineStr">
         <is>
           <t>adj. 明智的： marked by wisdom or judiciousness; wise
 adj. 小心谨慎的，审慎的： marked by circumspection</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
+      <c r="C85" t="inlineStr">
         <is>
           <t>prudent advice  明智的建议</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
         <is>
           <t>prune</t>
         </is>
       </c>
-      <c r="B85" t="inlineStr">
+      <c r="B86" t="inlineStr">
         <is>
           <t>n. 梅干： a plum dried or capable of drying without fermentation
 vt. 修剪： to cut off or remove dead or living parts or branches of (a plant, for example) to improveshape or growth</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
+      <c r="C86" t="inlineStr">
         <is>
           <t>The students were asked to prune their essays.  学生们被要求修改文章。</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>pry</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>don't go prying into other people's business  别去打探别人的事</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
@@ -2325,17 +2337,17 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>pseudonym</t>
+          <t>pry</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>n. 假名，笔名： a fictitious name</t>
+          <t>v. 刺探： to look or inquire closely, curiously, or impertinently</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
+          <t>don't go prying into other people's business  别去打探别人的事</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
@@ -2347,43 +2359,43 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
+          <t>pseudonym</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>n. 假名，笔名： a fictitious name</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Mark Twain is the pseudonym of the American writer Samuel L.   Clemens.   马 克 · 吐 温 是 美 国 作 家 塞 缪尔·L·克莱蒙斯的笔名。</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
           <t>psychology</t>
         </is>
       </c>
-      <c r="B88" t="inlineStr">
+      <c r="B89" t="inlineStr">
         <is>
           <t>n. 心理学： the science that deals with mental processes and behavior
 n. 心理战术： subtle tactical action or argument used to manipulate or influence another</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
+      <c r="C89" t="inlineStr">
         <is>
           <t>She studied psychology in college.   她大学专业是心理学。
 He used poor psychology on his employer when trying to make the point.   他表达观点时，对老板用了拙劣的心理战术。</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>pucker</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>pucker my lips  撅起嘴</t>
-        </is>
-      </c>
       <c r="D89" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2393,17 +2405,17 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>puckish</t>
+          <t>pucker</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
+          <t>vi. 撅（嘴），使收缩： to become gathered, contracted, and wrinkled</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
+          <t>pucker my lips  撅起嘴</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -2415,17 +2427,17 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>puerile</t>
+          <t>puckish</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
+          <t>adj. 淘气的，顽皮的： mischievous; impish</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>puerile remarks  幼稚的评论</t>
+          <t>She had a puckish smile on her face.   她脸上挂着顽皮的笑容。</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -2437,17 +2449,17 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>puissance</t>
+          <t>puerile</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>n. 权力： power; might</t>
+          <t>adj. 幼稚的，不成熟的： immature; lacking in adult experience or maturity</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
+          <t>puerile remarks  幼稚的评论</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
@@ -2459,15 +2471,19 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>pulchritude</t>
+          <t>puissance</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>n. 美丽： great physical beauty and appeal</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr"/>
+          <t>n. 权力： power; might</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>the president pledged to put the full puissance of the nation into the war effort  总统下令全国进入战争状态</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2477,19 +2493,15 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>pulverize</t>
+          <t>pulchritude</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
-        </is>
-      </c>
+          <t>n. 美丽： great physical beauty and appeal</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2499,17 +2511,17 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>pun</t>
+          <t>pulverize</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
+          <t>vt. 研磨成粉： to bring to a complete end the physical soundness, existence, or usefulness of</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
+          <t>Bits of pulverized rock filled the air.   被碾碎的岩石碎片充斥在空气里。</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
@@ -2521,15 +2533,19 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>punctilious</t>
+          <t>pun</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr"/>
+          <t>n. 双关语： the usually humorous use of a word in such a way as to suggest two or more of itsmeanings or the meaning of another word similar in sound</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>He's a skillful pilot whose career has—no pun intended—really taken off.   她是个技术娴熟的飞行员，飞行生涯——没有别的意思——真正腾飞了。</t>
+        </is>
+      </c>
       <c r="D96" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2539,19 +2555,15 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pundit</t>
+          <t>punctilious</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
-        </is>
-      </c>
+          <t>adj. 注意细节的，一丝不苟的： strictly attentive to minute details of form in action or conduct.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2561,17 +2573,17 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>pungent</t>
+          <t>pundit</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
+          <t>n. 权威人士，专家： a person who gives opinions in an authoritative manner usually through themass media</t>
         </is>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>pungent language  辛辣讽刺的语言</t>
+          <t>the new laptop has gotten a thumbs-up from industry pundits  新出的笔记本电脑受到了业界专家的一致好评</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
@@ -2583,15 +2595,19 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>puny</t>
+          <t>pungent</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
+          <t>adj. 辛辣的，讽刺的： marked by the use of wit that is intended to cause hurt feelings</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>pungent language  辛辣讽刺的语言</t>
+        </is>
+      </c>
       <c r="D99" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2601,19 +2617,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>purity</t>
+          <t>puny</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
-        </is>
-      </c>
+          <t>adj. 微小的，弱小的： of inferior size, strength, or significance; weak</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2623,43 +2635,43 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>purity</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>n. 纯净；清白，无罪： the quality or state of being morally pure; the quality or state of being morallypure</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>struggling to live a life of purity while surrounded by wickedness  即使周围充满邪恶，也要使自己生命纯粹、完美</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
           <t>purlieu</t>
         </is>
       </c>
-      <c r="B101" t="inlineStr">
+      <c r="B102" t="inlineStr">
         <is>
           <t>n. 常去的地方： a place for spending time or for socializing
 n. 临近的地区： an adjoining region or space</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
+      <c r="C102" t="inlineStr">
         <is>
           <t>The restaurant, the preferred purlieu of the theatergoing crowd, is always packed an hour or two beforeshowtime.  观剧的人群经常去的那间餐厅，总是在演出开始前 1-2 小时爆满。
 We stopped at one of the several pubs in the purlieus of the stadium.   我们在体育馆附近的一间酒吧停下来。</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>purloin</t>
-        </is>
-      </c>
-      <c r="B102" t="inlineStr">
-        <is>
-          <t>vt. 偷窃： to steal, often in a violation of trust</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
-        </is>
-      </c>
       <c r="D102" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2669,17 +2681,17 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>purvey</t>
+          <t>purloin</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
+          <t>vt. 偷窃： to steal, often in a violation of trust</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
+          <t>fearing that someone might attempt to purloin a copy of the script for the show's season finale  害怕该剧的完季那集剧本被盗</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -2691,17 +2703,17 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>pusillanimous</t>
+          <t>purvey</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>adj. 懦弱的，胆小得令人鄙视的： lacking courage and resolution : marked by contemptible timidity</t>
+          <t>v.（大量）供给，供应： to supply (food, for example); furnish.</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>pusillanimous politicians who vote according to whichever way the political wind is blowing  胆小懦弱的政客，舆论风向倒向谁就投票给谁</t>
+          <t>a little shop purveying handmade merchandise  出售手工商品的小店</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -2713,17 +2725,17 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>quack</t>
+          <t>pusillanimous</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
+          <t>adj. 懦弱的，胆小得令人鄙视的： lacking courage and resolution : marked by contemptible timidity</t>
         </is>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
+          <t>pusillanimous politicians who vote according to whichever way the political wind is blowing  胆小懦弱的政客，舆论风向倒向谁就投票给谁</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -2735,17 +2747,17 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>quaff</t>
+          <t>quack</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
+          <t>n. 骗子医生，江湖郎中： a pretender to medical skill</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
+          <t>don't bother to see that guy, as I've heard he's a quack with no actual training  别再找他看病了，我听说他就是个没有真才实学的江湖郎中</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -2757,17 +2769,17 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>quail</t>
+          <t>quaff</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
+          <t>vt. 大口地喝： to drink (a beverage) heartily</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
+          <t>He stopped at a bar and quaffed a few beers.   他在酒吧停下来，痛饮了几杯啤酒。</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
@@ -2779,43 +2791,43 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
+          <t>quail</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>vi. 胆怯，畏缩： to shrink back in fear; cower</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>She quailed at the thought of seeing him again.  她想到还要再见他就害怕。</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>qualify</t>
         </is>
       </c>
-      <c r="B108" t="inlineStr">
+      <c r="B109" t="inlineStr">
         <is>
           <t>vt. 限定： to reduce from a general to a particular or restricted form
 v. 使有资格，有能力： to make competent (as by training, skill, or ability) for a particular office orfunction</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
+      <c r="C109" t="inlineStr">
         <is>
           <t>qualified support  有限的支持
 raising five children has qualified her to be an advice columnist on parenting  抚养五个孩子的经历让她成为了育儿板块的专栏作家</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>quandary</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>n. 困惑，窘境： a state of perplexity or doubt</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
-        <is>
-          <t xml:space="preserve">I've had two job offers, and I'm in a real quandary about/over which one to accept.   我有两个工作机会,但实在是进退两难，不知道应该选哪一个.  </t>
-        </is>
-      </c>
       <c r="D109" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -2825,17 +2837,17 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>quarantine</t>
+          <t>quandary</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>n. 隔离： to isolate from normal relations or communication</t>
+          <t>n. 困惑，窘境： a state of perplexity or doubt</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>The cows will be kept in quarantine for another two weeks.   牛群还需要被隔离观察两周。</t>
+          <t xml:space="preserve">I've had two job offers, and I'm in a real quandary about/over which one to accept.   我有两个工作机会,但实在是进退两难，不知道应该选哪一个.  </t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
@@ -2847,40 +2859,40 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
+          <t>quarantine</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>n. 隔离： to isolate from normal relations or communication</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>The cows will be kept in quarantine for another two weeks.   牛群还需要被隔离观察两周。</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
           <t>quarry</t>
         </is>
       </c>
-      <c r="B111" t="inlineStr">
+      <c r="B112" t="inlineStr">
         <is>
           <t>n. 采石场： an open excavation or pit from which stone is obtained by digging, cutting, or blasting
 n. 目标，猎物： an object of pursuit</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
+      <c r="C112" t="inlineStr">
         <is>
           <t>a hunter relentlessly tracking his quarry  无情捕杀猎物的猎人</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>quash</t>
-        </is>
-      </c>
-      <c r="B112" t="inlineStr">
-        <is>
-          <t>vt. 镇压，阻止： to put a stop to (something) by the use of force</t>
-        </is>
-      </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>quash a rebellion  镇压一次叛变</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
@@ -2892,17 +2904,17 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>quaver</t>
+          <t>quash</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>vt. 发颤音： to speak in a quivering voice; utter a quivering sound</t>
+          <t>vt. 镇压，阻止： to put a stop to (something) by the use of force</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>His voice quavered during the speech.  整个演讲过程中，他的声音都是颤抖的。</t>
+          <t>quash a rebellion  镇压一次叛变</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -2914,64 +2926,64 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
+          <t>quaver</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>vt. 发颤音： to speak in a quivering voice; utter a quivering sound</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>His voice quavered during the speech.  整个演讲过程中，他的声音都是颤抖的。</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
           <t>quell</t>
         </is>
       </c>
-      <c r="B114" t="inlineStr">
+      <c r="B115" t="inlineStr">
         <is>
           <t>vt. 压制： to put down forcibly; suppress
 vt. 使平静，安静： to pacify; quiet</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
+      <c r="C115" t="inlineStr">
         <is>
           <t>quell riot  镇压骚乱
 quell fears  减轻害怕</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
         <is>
           <t>quench</t>
         </is>
       </c>
-      <c r="B115" t="inlineStr">
+      <c r="B116" t="inlineStr">
         <is>
           <t>vt. 熄灭： to put out (a fire, for example); extinguish.
 v. 使满足： to put a complete end to (a physical need or desire)</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="C116" t="inlineStr">
         <is>
           <t>We thoroughly quenched the campfire before we headed to bed.  我们在睡前把营火完全熄灭了。</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>querulous</t>
-        </is>
-      </c>
-      <c r="B116" t="inlineStr">
-        <is>
-          <t>adj. 抱怨的，爱发牢骚的： habitually complaining</t>
-        </is>
-      </c>
-      <c r="C116" t="inlineStr">
-        <is>
-          <t>a querulous voice  抱怨的声音</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -2983,43 +2995,43 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
+          <t>querulous</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>adj. 抱怨的，爱发牢骚的： habitually complaining</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>a querulous voice  抱怨的声音</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
           <t>quibble</t>
         </is>
       </c>
-      <c r="B117" t="inlineStr">
+      <c r="B118" t="inlineStr">
         <is>
           <t>vi. 吹毛求疵： to find fault or criticize for petty reasons; cavil
 n. 牵强之词：微不足道的差别或不切中要点的异议，小反对： a minor objection or criticism</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="C118" t="inlineStr">
         <is>
           <t>she spent the entire evening quibbling about the historical inaccuracies in the television series on WorldWar II  她一整晚都在对那个关于二战的电视剧里的历史错误吹毛求疵
 My only quibble about the trip was that it rained a lot.   我对旅行唯一的小不满就是下雨有点多。</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>quiescent</t>
-        </is>
-      </c>
-      <c r="B118" t="inlineStr">
-        <is>
-          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
-        </is>
-      </c>
-      <c r="C118" t="inlineStr">
-        <is>
-          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
-        </is>
-      </c>
       <c r="D118" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3029,17 +3041,17 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>quixotic</t>
+          <t>quiescent</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
+          <t>adj. 平静的，静止的： being quiet, still, or at rest; inactive</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
+          <t>a group of quiescent loungers  一群平静懒散的流浪汉</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
@@ -3051,17 +3063,17 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>quota</t>
+          <t>quixotic</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>n. 配额，限额： a proportional part or share</t>
+          <t>adj. 不切实际的，空想的： having or marked by a tendency to be guided more by ideals than byreality</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
+          <t>She had quixotic dreams about the future.  她对未来有着幻想。</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
@@ -3073,17 +3085,17 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>quotidian</t>
+          <t>quota</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>adj. 平凡的： everyday; commonplace</t>
+          <t>n. 配额，限额： a proportional part or share</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>plagued by a quotidian coughing  每天被咳嗽困扰</t>
+          <t>The department set new sales quotas in May.   部门设定了五月的销售定额。</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
@@ -3095,17 +3107,17 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>rabble</t>
+          <t>quotidian</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
+          <t>adj. 平凡的： everyday; commonplace</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
+          <t>plagued by a quotidian coughing  每天被咳嗽困扰</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
@@ -3117,17 +3129,17 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>rabid</t>
+          <t>rabble</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
+          <t>n. 混乱的人群： a disorganized or disorderly crowd of people</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
+          <t>the crown prince was reminded that even the rabble deserved his attention and compassion  太子应该知道即使是草民，也值得他的关注和同情</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
@@ -3139,17 +3151,17 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>racy</t>
+          <t>rabid</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>adj. 活泼生动的： vigorous; lively</t>
+          <t>adj. 狂热的，不冷静的： extremely zealous or enthusiastic; fanatical</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
+          <t>soccer fans whose rabid enthusiasm makes them go berserk when their team wins  不 冷 静 的 粉 丝 们在球队获胜以后变得很狂暴</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
@@ -3161,17 +3173,17 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>raffish</t>
+          <t>racy</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
+          <t>adj. 活泼生动的： vigorous; lively</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
+          <t>vivid writing and a racy plot that keeps readers turning the pages  栩栩如生的手法和生动新鲜的情节让读者手不释卷</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
@@ -3183,17 +3195,17 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>raffle</t>
+          <t>raffish</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>n. 垃圾，废物： discarded or useless material</t>
+          <t>adj. 低俗的： marked by or suggestive of flashy vulgarity or crudeness</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
+          <t>the dowager cringed at the thought of raffish tourists tromping all over her Persian rugs  寡妇一想到低俗的游客践踏她的波斯地毯就痛苦不已</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
@@ -3205,17 +3217,17 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>rage</t>
+          <t>raffle</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>n./v. 暴怒： violent and uncontrolled anger</t>
+          <t>n. 垃圾，废物： discarded or useless material</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
+          <t>The front lawn was littered with the raffle that the workers had left behind.   前院的草坪上满是工人们丢的垃圾。</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
@@ -3227,43 +3239,43 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
+          <t>rage</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>n./v. 暴怒： violent and uncontrolled anger</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Her rages rarely last more than a few minutes.  她的暴躁来得快去得也快。</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
           <t>ragged</t>
         </is>
       </c>
-      <c r="B128" t="inlineStr">
+      <c r="B129" t="inlineStr">
         <is>
           <t>adj. 衣衫褴褛的： dressed in tattered or threadbare clothes
 adj. 凹凸不平的，不光滑的： not having a level or smooth surface</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="C129" t="inlineStr">
         <is>
           <t>A ragged coat may cover an honest man.   不能以衣著取人。
 She cut herself on the ragged edge of the tin can's lid.   她被罐头盖的锋利边缘割伤了。</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>rail</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
-        </is>
-      </c>
       <c r="D129" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3273,17 +3285,17 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>rakish</t>
+          <t>rail</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
+          <t>vi. 怒骂，猛烈抨击： to revile or scold in harsh, insolent, or abusive language</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
+          <t xml:space="preserve">We could hear the cook in the kitchen railing against his assistant and wondered if we'd ever get our food.  </t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
@@ -3295,36 +3307,44 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
+          <t>rakish</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>adj. 放荡的，行为不检点的： having or showing lowered moral character or standards; dissolute</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>He wore his hat at a rakish angle.  他帽子戴得吊儿郎当的。</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
           <t>ramble</t>
         </is>
       </c>
-      <c r="B131" t="inlineStr">
+      <c r="B132" t="inlineStr">
         <is>
           <t>vi. 漫步，漫游： to move aimlessly from place to place
 vi. 漫谈；长篇大论（并经常离题）地说或写： to talk at length without sticking to a topic or getting toa point</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="C132" t="inlineStr">
         <is>
           <t>rambling under the starlight  在星光下漫步
 rambling around Beijing for a week  在北京四处漫游一周
 rambling on about dating, homework, movies, and the local football team  扯了一些关于约会、作业、电影以及本地橄榄球队的闲谈</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>rambunctious</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="inlineStr"/>
       <c r="D132" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3334,19 +3354,11 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>ramshackle</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>adj. 摇摇欲坠的： appearing ready to collapse; rickety</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>a ramshackle cabin in the woods  树林中摇摇欲坠的小木屋</t>
-        </is>
-      </c>
+          <t>rambunctious</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr"/>
+      <c r="C133" t="inlineStr"/>
       <c r="D133" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3356,17 +3368,17 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>rancor</t>
+          <t>ramshackle</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>n. 敌意，深仇： a bitter deep-seated ill will</t>
+          <t>adj. 摇摇欲坠的： appearing ready to collapse; rickety</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>A good man terminates a friendship without rancor.  君子绝交不记仇。</t>
+          <t>a ramshackle cabin in the woods  树林中摇摇欲坠的小木屋</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -3378,42 +3390,42 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
+          <t>rancor</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>n. 敌意，深仇： a bitter deep-seated ill will</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>A good man terminates a friendship without rancor.  君子绝交不记仇。</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
           <t>random</t>
         </is>
       </c>
-      <c r="B135" t="inlineStr">
+      <c r="B136" t="inlineStr">
         <is>
           <t>adj. 随机的，随意的： lacking a definite plan, purpose, or pattern</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="C136" t="inlineStr">
         <is>
           <t>We received several answers and picked one at random.   我们收到了若干答案，并随机抽取了一个。
 aimless, arbitrary, desultory, erratic, haphazard, scattered, slapdash, stray</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>rankle</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>vt. 激怒： to cause anger, irritation, or deep bitterness</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>It rankles me when some schools can't even afford paper and pencils for the students.   当 我 获 悉 有 些 学校连纸张和铅笔都无法提供给学生时，我感到十分愤怒。</t>
-        </is>
-      </c>
       <c r="D136" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3423,39 +3435,43 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
+          <t>rankle</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>vt. 激怒： to cause anger, irritation, or deep bitterness</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>It rankles me when some schools can't even afford paper and pencils for the students.   当 我 获 悉 有 些 学校连纸张和铅笔都无法提供给学生时，我感到十分愤怒。</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
           <t>rant</t>
         </is>
       </c>
-      <c r="B137" t="inlineStr">
+      <c r="B138" t="inlineStr">
         <is>
           <t>n. （尤指长时间的）训斥，责骂： a long angry speech or scolding
 vi. 怒吼： to speak or write in a noisy, angry or violent manner</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="C138" t="inlineStr">
         <is>
           <t>After complaining about the hotel’s lousy service, the woman went off on another rant about the conditionof her room.   在抱怨完旅店差劲的服务之后，她继续对房间的条件开骂。
 The old expert ranted that nobody paid any attention to his opinion.   老专家怒气冲冲的叫嚷说没人听他的观点。</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>rapacious</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>adj. 食量大的，贪食的： having a huge appetite</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3465,19 +3481,15 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>rapport</t>
+          <t>rapacious</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>n. 和睦，友好： a friendly relationship marked by ready communication and mutual understanding</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>His good rapport with his students was one of the reasons why the school board named him Teacher of theYear.  他和学生的关系和睦是他被提名为“年度教师”的原因之一。</t>
-        </is>
-      </c>
+          <t>adj. 食量大的，贪食的： having a huge appetite</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3487,17 +3499,17 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>rapprochement</t>
+          <t>rapport</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>n. 和睦，友好： establishment of or state of having cordial relations</t>
+          <t>n. 和睦，友好： a friendly relationship marked by ready communication and mutual understanding</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>an era of rapprochement betweenChina and Russia  中俄两国睦邻友好关系的新纪元</t>
+          <t>His good rapport with his students was one of the reasons why the school board named him Teacher of theYear.  他和学生的关系和睦是他被提名为“年度教师”的原因之一。</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
@@ -3509,17 +3521,17 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>rapscallion</t>
+          <t>rapprochement</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>n. 流氓，恶棍：a mean, evil, or unprincipled person</t>
+          <t>n. 和睦，友好： establishment of or state of having cordial relations</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>an unsafe place frequented by drunkards and rapscallions  一个酒鬼和流氓经常造访的不安全的地方</t>
+          <t>an era of rapprochement betweenChina and Russia  中俄两国睦邻友好关系的新纪元</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
@@ -3531,43 +3543,43 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
+          <t>rapscallion</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>n. 流氓，恶棍：a mean, evil, or unprincipled person</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>an unsafe place frequented by drunkards and rapscallions  一个酒鬼和流氓经常造访的不安全的地方</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
           <t>rapt</t>
         </is>
       </c>
-      <c r="B142" t="inlineStr">
+      <c r="B143" t="inlineStr">
         <is>
           <t>adj. 狂喜的： experiencing or marked by overwhelming usually pleasurable emotion
 adj. 全神贯注的：deeply absorbed; engrossed</t>
         </is>
       </c>
-      <c r="C142" t="inlineStr">
+      <c r="C143" t="inlineStr">
         <is>
           <t>a rock band that still attracts rapt crowds  一个仍然拥有者狂热粉丝的乐队
 With a mixture of delight and awe, the rapt children stared at the chick in the incubator breaking out of itsshell.  怀着愉快和敬畏的复杂心理，孩子们全神贯注地盯着孵化箱中的小鸡破壳而出。</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>rash</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>adj. 草率的，仓促的： marked by or proceeding from undue haste or lack of deliberation or caution</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>That was too rash a move: for now you've lost your bishop and probably the whole chess game.   那 一 招棋着实是太草率了，现在你丢掉了象，很有可能会输掉整场比赛。</t>
-        </is>
-      </c>
       <c r="D143" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3577,17 +3589,17 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>rarefy</t>
+          <t>rash</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>vt. 使稀薄： to make rare, thin, porous, or less dense: to expand without the addition of matter</t>
+          <t>adj. 草率的，仓促的： marked by or proceeding from undue haste or lack of deliberation or caution</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>rarefy the air  使空气变得稀薄</t>
+          <t>That was too rash a move: for now you've lost your bishop and probably the whole chess game.   那 一 招棋着实是太草率了，现在你丢掉了象，很有可能会输掉整场比赛。</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
@@ -3599,43 +3611,43 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
+          <t>rarefy</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>vt. 使稀薄： to make rare, thin, porous, or less dense: to expand without the addition of matter</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>rarefy the air  使空气变得稀薄</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
           <t>raspy</t>
         </is>
       </c>
-      <c r="B145" t="inlineStr">
+      <c r="B146" t="inlineStr">
         <is>
           <t>adj. 声音刺耳的： harsh and dry in sound
 adj. 容易生气的： easily irritated or annoyed</t>
         </is>
       </c>
-      <c r="C145" t="inlineStr">
+      <c r="C146" t="inlineStr">
         <is>
           <t>The dying man was speaking in a raspy and barely discernible voice.   将死的人在用一种沙哑刺耳且难以听清的语调说话。
 Overwork tends to make him raspy.   过度的工作让他变得烦躁易怒。</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>ratify</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>vt. （官方地）认可，批准： to give official acceptance of as satisfactory</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Lincoln's home state of Illinois was the first to ratify the 13th Amendment to the U.  S.   Constitution, whichprovided for the abolition of slavery.   林肯的老家——伊利诺伊是美国第一个通过《宪法第十三修正案》的州，该决案提供了废除奴隶制的法律基础。</t>
-        </is>
-      </c>
       <c r="D146" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3645,17 +3657,17 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>ratiocination</t>
+          <t>ratify</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>n. 推理： the thought processes that have been established as leading to valid solutions to problems</t>
+          <t>vt. （官方地）认可，批准： to give official acceptance of as satisfactory</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>As an expert in ratiocination, the detective Sherlock Holmes has few rivals.  作为推理专家，大侦探福尔摩斯可谓无人能及。</t>
+          <t>Lincoln's home state of Illinois was the first to ratify the 13th Amendment to the U.  S.   Constitution, whichprovided for the abolition of slavery.   林肯的老家——伊利诺伊是美国第一个通过《宪法第十三修正案》的州，该决案提供了废除奴隶制的法律基础。</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
@@ -3667,91 +3679,91 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
+          <t>ratiocination</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>n. 推理： the thought processes that have been established as leading to valid solutions to problems</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>As an expert in ratiocination, the detective Sherlock Holmes has few rivals.  作为推理专家，大侦探福尔摩斯可谓无人能及。</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
           <t>ration</t>
         </is>
       </c>
-      <c r="B148" t="inlineStr">
+      <c r="B149" t="inlineStr">
         <is>
           <t>n. 定额供应量，配给量： an amount allotted or made available especially from a limited supply
 vt. 按比例分配： to give as a share or portion</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="C149" t="inlineStr">
         <is>
           <t>The meat ration was down to one pound per person per week.   肉的人均供给量降至了每周一磅。
 The region has had to ration water during times of drought.   干旱时该地区不得不按比例分配水资源。</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
         <is>
           <t>rational</t>
         </is>
       </c>
-      <c r="B149" t="inlineStr">
+      <c r="B150" t="inlineStr">
         <is>
           <t>adj. 合乎逻辑的： consistent with or based on reason; logical
 adj. 理性的： based on sound reasoning or information</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="C150" t="inlineStr">
         <is>
           <t>He insisted there was a rational explanation for the strange creaking noises and that there were no suchthings as ghosts.   他坚持认为奇怪的咯吱声一定有一个合理的解释，而不是所谓的鬼在作怪。
 Betting all of your savings on the lottery is not a rational move.   把你所有的存款赌在彩票上可不是一个理智的决定。</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
         <is>
           <t>rave</t>
         </is>
       </c>
-      <c r="B150" t="inlineStr">
+      <c r="B151" t="inlineStr">
         <is>
           <t>vi. 狂热赞扬： to make an exaggerated display of affection or enthusiasm
 vi. （发疯般地）怒吼： to talk irrationally and wildly in or as if in delirium</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="C151" t="inlineStr">
         <is>
           <t>Critics raved about the new play.   新剧得到了评论家们的热烈赞扬。
 a man standing outside the city hall,raving like a lunatic about his tax bill  站在市政大厅外、像疯子一样叫嚷着自己税单的人</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>ravel</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>vt. 解开，松开： to separate the various strands of</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。</t>
-        </is>
-      </c>
       <c r="D151" t="inlineStr">
         <is>
           <t>GRE</t>
@@ -3761,17 +3773,17 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>ravish</t>
+          <t>ravel</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>vt. 使陶醉，使沉迷： to overcome with emotion (as wonder or delight)</t>
+          <t>vt. 解开，松开： to separate the various strands of</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>I was completely ravished by those marvelous pictures taken by HST.  那些哈勃太空望远镜拍摄的壮观图片让我彻底的陶醉了。</t>
+          <t>Since the sweater is too small, you could ravel the yarnout and make something else with it.  既 然 这个毛衣太大，你可以把它拆了然后织些新的东西。</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
@@ -3783,43 +3795,65 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
+          <t>ravish</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>vt. 使陶醉，使沉迷： to overcome with emotion (as wonder or delight)</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>I was completely ravished by those marvelous pictures taken by HST.  那些哈勃太空望远镜拍摄的壮观图片让我彻底的陶醉了。</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
           <t>raze</t>
         </is>
       </c>
-      <c r="B153" t="inlineStr">
+      <c r="B154" t="inlineStr">
         <is>
           <t>vt. 摧毁，粉碎： to destroy completely by or as if by knocking down or breaking to pieces</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="C154" t="inlineStr">
         <is>
           <t>Excavators were began to raze old school building.  挖土机开始夷平学校的老建筑。
 An entire cityblock razed by a terrible fire.  大火摧毁了整个街区。</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>GRE</t>
-        </is>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>GRE</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
         <is>
           <t>react</t>
         </is>
       </c>
-      <c r="B154" t="inlineStr">
+      <c r="B155" t="inlineStr">
         <is>
           <t>vt. 做出反应： to act or behave in response (as to a stimulus or influence)</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="C155" t="inlineStr">
         <is>
           <t>didn't know how to react to the cheers of the crowd  不知如何对人群的欢呼声做出回应</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>GRE</t>
         </is>
